--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -22,14 +22,14 @@
     <definedName name="hostoccupation">'cv_sample'!$BM$1:$BM$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BQ$1:$BQ$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$BG$1:$BG$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="medicalhistoryperformed">'cv_sample'!$AV$1:$AV$2</definedName>
     <definedName name="observedbioticrelationship">'cv_sample'!$CE$1:$CE$5</definedName>
     <definedName name="oxygenationstatusofsample">'cv_sample'!$AW$1:$AW$2</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="relationshiptooxygen">'cv_sample'!$CB$1:$CB$7</definedName>
     <definedName name="sequencequalitycheck">'cv_sample'!$AB$1:$AB$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="837">
   <si>
     <t>alias</t>
   </si>
@@ -459,6 +459,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -558,6 +570,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -675,6 +705,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -682,6 +715,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -3065,10 +3101,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3109,10 +3145,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3175,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3159,7 +3195,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -3176,7 +3212,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -3193,7 +3229,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -3210,7 +3246,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -3227,7 +3263,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -3244,7 +3280,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -3261,7 +3297,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -3278,7 +3314,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -3295,7 +3331,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -3309,7 +3345,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -3323,7 +3359,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -3337,7 +3373,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -3351,7 +3387,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -3361,8 +3397,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -3372,8 +3411,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -3383,8 +3425,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -3394,8 +3439,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -3406,7 +3454,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -3417,7 +3465,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -3428,7 +3476,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -3439,7 +3487,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3450,7 +3498,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3461,7 +3509,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3472,7 +3520,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3483,7 +3531,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3494,7 +3542,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3505,7 +3553,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3516,7 +3564,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3527,7 +3575,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3538,7 +3586,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3549,7 +3597,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3557,7 +3605,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3565,7 +3613,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3573,7 +3621,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3581,7 +3629,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3589,7 +3637,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3597,7 +3645,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3605,7 +3653,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3613,7 +3661,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3621,7 +3669,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3629,176 +3677,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3823,27 +3911,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3866,122 +3954,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4008,510 +4096,510 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>823</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" spans="1:85" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>822</v>
+        <v>834</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -4561,1845 +4649,1845 @@
   <sheetData>
     <row r="1" spans="28:83">
       <c r="AB1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AI1" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AV1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AW1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="BG1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="BM1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="BQ1" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="CA1" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="CB1" t="s">
-        <v>801</v>
+        <v>813</v>
       </c>
       <c r="CE1" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
     </row>
     <row r="2" spans="28:83">
       <c r="AB2" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AI2" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AV2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AW2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="BG2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="BM2" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="BQ2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="CA2" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="CB2" t="s">
-        <v>802</v>
+        <v>814</v>
       </c>
       <c r="CE2" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="28:83">
       <c r="AB3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AI3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="BG3" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="BM3" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="BQ3" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="CA3" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="CB3" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="CE3" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" spans="28:83">
       <c r="AI4" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="BG4" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="BM4" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="BQ4" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="CA4" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="CB4" t="s">
-        <v>804</v>
+        <v>816</v>
       </c>
       <c r="CE4" t="s">
-        <v>817</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="28:83">
       <c r="AI5" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="BG5" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="BM5" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="BQ5" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="CA5" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="CB5" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="CE5" t="s">
-        <v>818</v>
+        <v>830</v>
       </c>
     </row>
     <row r="6" spans="28:83">
       <c r="AI6" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="BG6" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="BM6" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="BQ6" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="CA6" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="CB6" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
     </row>
     <row r="7" spans="28:83">
       <c r="AI7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="BG7" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="BM7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="BQ7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="CA7" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="CB7" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="28:83">
       <c r="AI8" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="BG8" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="BM8" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="BQ8" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="CA8" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="28:83">
       <c r="AI9" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="BG9" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
       <c r="BM9" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="BQ9" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="CA9" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="28:83">
       <c r="AI10" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="BG10" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="BM10" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="BQ10" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="CA10" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="28:83">
       <c r="AI11" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="BG11" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="BM11" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="BQ11" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="CA11" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="28:83">
       <c r="AI12" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="BG12" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="BM12" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="BQ12" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="CA12" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="28:83">
       <c r="AI13" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="BG13" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="BM13" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="BQ13" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="CA13" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
     </row>
     <row r="14" spans="28:83">
       <c r="AI14" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="BG14" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="BM14" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="BQ14" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="CA14" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="15" spans="28:83">
       <c r="AI15" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="BG15" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="BM15" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="BQ15" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="CA15" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
     </row>
     <row r="16" spans="28:83">
       <c r="AI16" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="BG16" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="BM16" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="BQ16" t="s">
         <v>116</v>
       </c>
       <c r="CA16" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
     </row>
     <row r="17" spans="35:79">
       <c r="AI17" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="BG17" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="BM17" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="BQ17" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="CA17" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="35:79">
       <c r="AI18" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="BG18" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="BM18" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="CA18" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="19" spans="35:79">
       <c r="AI19" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="BG19" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="BM19" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="CA19" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
     </row>
     <row r="20" spans="35:79">
       <c r="AI20" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="BG20" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="BM20" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="CA20" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="35:79">
       <c r="AI21" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="BG21" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="BM21" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="CA21" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22" spans="35:79">
       <c r="AI22" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="BG22" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="BM22" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="CA22" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
     </row>
     <row r="23" spans="35:79">
       <c r="AI23" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="BM23" t="s">
-        <v>711</v>
+        <v>723</v>
       </c>
       <c r="CA23" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="35:79">
       <c r="AI24" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="BM24" t="s">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="CA24" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
     </row>
     <row r="25" spans="35:79">
       <c r="AI25" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="BM25" t="s">
-        <v>713</v>
+        <v>725</v>
       </c>
       <c r="CA25" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
     </row>
     <row r="26" spans="35:79">
       <c r="AI26" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="BM26" t="s">
-        <v>714</v>
+        <v>726</v>
       </c>
       <c r="CA26" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="35:79">
       <c r="AI27" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="BM27" t="s">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="CA27" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28" spans="35:79">
       <c r="AI28" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="BM28" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="CA28" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="35:79">
       <c r="AI29" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="BM29" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="CA29" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="30" spans="35:79">
       <c r="AI30" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="BM30" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="CA30" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="35:79">
       <c r="AI31" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="BM31" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="35:79">
       <c r="AI32" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BM32" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="35:65">
       <c r="AI33" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="BM33" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="35:65">
       <c r="AI34" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="BM34" t="s">
-        <v>722</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="35:65">
       <c r="AI35" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="BM35" t="s">
-        <v>723</v>
+        <v>735</v>
       </c>
     </row>
     <row r="36" spans="35:65">
       <c r="AI36" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="BM36" t="s">
-        <v>724</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37" spans="35:65">
       <c r="AI37" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="BM37" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="35:65">
       <c r="AI38" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="BM38" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="35:65">
       <c r="AI39" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="BM39" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="35:65">
       <c r="AI40" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="BM40" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="41" spans="35:65">
       <c r="AI41" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="BM41" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="42" spans="35:65">
       <c r="AI42" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="BM42" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="43" spans="35:65">
       <c r="AI43" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="BM43" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="35:65">
       <c r="AI44" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="BM44" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="45" spans="35:65">
       <c r="AI45" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="BM45" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="35:65">
       <c r="AI46" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="BM46" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="35:65">
       <c r="AI47" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="BM47" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="35:65">
       <c r="AI48" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="BM48" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" spans="35:35">
       <c r="AI49" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="35:35">
       <c r="AI50" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="35:35">
       <c r="AI51" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="35:35">
       <c r="AI52" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="35:35">
       <c r="AI53" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="35:35">
       <c r="AI54" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="55" spans="35:35">
       <c r="AI55" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56" spans="35:35">
       <c r="AI56" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="57" spans="35:35">
       <c r="AI57" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="35:35">
       <c r="AI58" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="35:35">
       <c r="AI59" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="35:35">
       <c r="AI60" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="35:35">
       <c r="AI61" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="35:35">
       <c r="AI62" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="35:35">
       <c r="AI63" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="35:35">
       <c r="AI64" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="35:35">
       <c r="AI65" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66" spans="35:35">
       <c r="AI66" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="67" spans="35:35">
       <c r="AI67" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="35:35">
       <c r="AI68" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69" spans="35:35">
       <c r="AI69" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="35:35">
       <c r="AI70" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="71" spans="35:35">
       <c r="AI71" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="72" spans="35:35">
       <c r="AI72" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="35:35">
       <c r="AI73" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="35:35">
       <c r="AI74" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="35:35">
       <c r="AI75" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="35:35">
       <c r="AI76" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="35:35">
       <c r="AI77" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="35:35">
       <c r="AI78" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="35:35">
       <c r="AI79" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="80" spans="35:35">
       <c r="AI80" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="35:35">
       <c r="AI81" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="35:35">
       <c r="AI82" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="83" spans="35:35">
       <c r="AI83" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="84" spans="35:35">
       <c r="AI84" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="35:35">
       <c r="AI85" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="86" spans="35:35">
       <c r="AI86" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="35:35">
       <c r="AI87" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="88" spans="35:35">
       <c r="AI88" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="35:35">
       <c r="AI89" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="35:35">
       <c r="AI90" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="91" spans="35:35">
       <c r="AI91" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="35:35">
       <c r="AI92" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="35:35">
       <c r="AI93" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="35:35">
       <c r="AI94" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95" spans="35:35">
       <c r="AI95" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="35:35">
       <c r="AI96" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="35:35">
       <c r="AI97" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="35:35">
       <c r="AI98" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="35:35">
       <c r="AI99" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="35:35">
       <c r="AI100" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="35:35">
       <c r="AI101" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="35:35">
       <c r="AI102" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="35:35">
       <c r="AI103" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="35:35">
       <c r="AI104" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="35:35">
       <c r="AI105" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="35:35">
       <c r="AI106" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="35:35">
       <c r="AI107" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="35:35">
       <c r="AI108" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="109" spans="35:35">
       <c r="AI109" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="35:35">
       <c r="AI110" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111" spans="35:35">
       <c r="AI111" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="35:35">
       <c r="AI112" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="35:35">
       <c r="AI113" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="35:35">
       <c r="AI114" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="115" spans="35:35">
       <c r="AI115" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="35:35">
       <c r="AI116" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="35:35">
       <c r="AI117" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="35:35">
       <c r="AI118" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="35:35">
       <c r="AI119" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="35:35">
       <c r="AI120" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="35:35">
       <c r="AI121" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="122" spans="35:35">
       <c r="AI122" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="35:35">
       <c r="AI123" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="124" spans="35:35">
       <c r="AI124" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125" spans="35:35">
       <c r="AI125" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="126" spans="35:35">
       <c r="AI126" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="127" spans="35:35">
       <c r="AI127" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="128" spans="35:35">
       <c r="AI128" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="35:35">
       <c r="AI129" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="130" spans="35:35">
       <c r="AI130" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="131" spans="35:35">
       <c r="AI131" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="132" spans="35:35">
       <c r="AI132" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="133" spans="35:35">
       <c r="AI133" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="134" spans="35:35">
       <c r="AI134" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="135" spans="35:35">
       <c r="AI135" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="136" spans="35:35">
       <c r="AI136" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137" spans="35:35">
       <c r="AI137" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138" spans="35:35">
       <c r="AI138" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" spans="35:35">
       <c r="AI139" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="140" spans="35:35">
       <c r="AI140" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="141" spans="35:35">
       <c r="AI141" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="142" spans="35:35">
       <c r="AI142" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="143" spans="35:35">
       <c r="AI143" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="35:35">
       <c r="AI144" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="145" spans="35:35">
       <c r="AI145" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="35:35">
       <c r="AI146" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="35:35">
       <c r="AI147" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="35:35">
       <c r="AI148" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="35:35">
       <c r="AI149" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="35:35">
       <c r="AI150" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="35:35">
       <c r="AI151" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="35:35">
       <c r="AI152" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="35:35">
       <c r="AI153" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="35:35">
       <c r="AI154" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="35:35">
       <c r="AI155" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="35:35">
       <c r="AI156" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="35:35">
       <c r="AI157" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="158" spans="35:35">
       <c r="AI158" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="35:35">
       <c r="AI159" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" spans="35:35">
       <c r="AI160" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="35:35">
       <c r="AI161" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="35:35">
       <c r="AI162" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="35:35">
       <c r="AI163" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="35:35">
       <c r="AI164" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" spans="35:35">
       <c r="AI165" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="35:35">
       <c r="AI166" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="35:35">
       <c r="AI167" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="168" spans="35:35">
       <c r="AI168" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="169" spans="35:35">
       <c r="AI169" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="35:35">
       <c r="AI170" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="35:35">
       <c r="AI171" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="35:35">
       <c r="AI172" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="35:35">
       <c r="AI173" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="35:35">
       <c r="AI174" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="35:35">
       <c r="AI175" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="35:35">
       <c r="AI176" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="177" spans="35:35">
       <c r="AI177" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="35:35">
       <c r="AI178" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="179" spans="35:35">
       <c r="AI179" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="180" spans="35:35">
       <c r="AI180" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="181" spans="35:35">
       <c r="AI181" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="182" spans="35:35">
       <c r="AI182" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="35:35">
       <c r="AI183" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="184" spans="35:35">
       <c r="AI184" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="185" spans="35:35">
       <c r="AI185" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="186" spans="35:35">
       <c r="AI186" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="35:35">
       <c r="AI187" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="188" spans="35:35">
       <c r="AI188" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="35:35">
       <c r="AI189" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="35:35">
       <c r="AI190" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="35:35">
       <c r="AI191" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="192" spans="35:35">
       <c r="AI192" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="193" spans="35:35">
       <c r="AI193" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="194" spans="35:35">
       <c r="AI194" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="195" spans="35:35">
       <c r="AI195" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="196" spans="35:35">
       <c r="AI196" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="197" spans="35:35">
       <c r="AI197" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="35:35">
       <c r="AI198" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="199" spans="35:35">
       <c r="AI199" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="35:35">
       <c r="AI200" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="201" spans="35:35">
       <c r="AI201" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="202" spans="35:35">
       <c r="AI202" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="203" spans="35:35">
       <c r="AI203" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="204" spans="35:35">
       <c r="AI204" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="205" spans="35:35">
       <c r="AI205" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="35:35">
       <c r="AI206" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="35:35">
       <c r="AI207" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" spans="35:35">
       <c r="AI208" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="209" spans="35:35">
       <c r="AI209" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="210" spans="35:35">
       <c r="AI210" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="35:35">
       <c r="AI211" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="35:35">
       <c r="AI212" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213" spans="35:35">
       <c r="AI213" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="214" spans="35:35">
       <c r="AI214" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="35:35">
       <c r="AI215" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="35:35">
       <c r="AI216" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="217" spans="35:35">
       <c r="AI217" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="35:35">
       <c r="AI218" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="219" spans="35:35">
       <c r="AI219" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="35:35">
       <c r="AI220" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="35:35">
       <c r="AI221" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="35:35">
       <c r="AI222" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="223" spans="35:35">
       <c r="AI223" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="35:35">
       <c r="AI224" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="35:35">
       <c r="AI225" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="226" spans="35:35">
       <c r="AI226" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" spans="35:35">
       <c r="AI227" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="35:35">
       <c r="AI228" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="35:35">
       <c r="AI229" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="230" spans="35:35">
       <c r="AI230" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="231" spans="35:35">
       <c r="AI231" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="232" spans="35:35">
       <c r="AI232" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="233" spans="35:35">
       <c r="AI233" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="35:35">
       <c r="AI234" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="235" spans="35:35">
       <c r="AI235" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="236" spans="35:35">
       <c r="AI236" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="237" spans="35:35">
       <c r="AI237" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="35:35">
       <c r="AI238" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="35:35">
       <c r="AI239" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="35:35">
       <c r="AI240" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="241" spans="35:35">
       <c r="AI241" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="242" spans="35:35">
       <c r="AI242" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="35:35">
       <c r="AI243" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="244" spans="35:35">
       <c r="AI244" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="35:35">
       <c r="AI245" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="35:35">
       <c r="AI246" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="35:35">
       <c r="AI247" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="35:35">
       <c r="AI248" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="35:35">
       <c r="AI249" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="250" spans="35:35">
       <c r="AI250" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="251" spans="35:35">
       <c r="AI251" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252" spans="35:35">
       <c r="AI252" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="35:35">
       <c r="AI253" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="254" spans="35:35">
       <c r="AI254" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="35:35">
       <c r="AI255" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="256" spans="35:35">
       <c r="AI256" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="35:35">
       <c r="AI257" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="258" spans="35:35">
       <c r="AI258" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="259" spans="35:35">
       <c r="AI259" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="260" spans="35:35">
       <c r="AI260" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="261" spans="35:35">
       <c r="AI261" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="262" spans="35:35">
       <c r="AI262" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
     </row>
     <row r="263" spans="35:35">
       <c r="AI263" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="264" spans="35:35">
       <c r="AI264" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" spans="35:35">
       <c r="AI265" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="266" spans="35:35">
       <c r="AI266" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
     </row>
     <row r="267" spans="35:35">
       <c r="AI267" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="268" spans="35:35">
       <c r="AI268" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="269" spans="35:35">
       <c r="AI269" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="270" spans="35:35">
       <c r="AI270" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="271" spans="35:35">
       <c r="AI271" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="272" spans="35:35">
       <c r="AI272" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
     </row>
     <row r="273" spans="35:35">
       <c r="AI273" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="274" spans="35:35">
       <c r="AI274" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
     </row>
     <row r="275" spans="35:35">
       <c r="AI275" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="276" spans="35:35">
       <c r="AI276" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="277" spans="35:35">
       <c r="AI277" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="35:35">
       <c r="AI278" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="35:35">
       <c r="AI279" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
     <row r="280" spans="35:35">
       <c r="AI280" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
     </row>
     <row r="281" spans="35:35">
       <c r="AI281" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="282" spans="35:35">
       <c r="AI282" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="283" spans="35:35">
       <c r="AI283" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="35:35">
       <c r="AI284" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="35:35">
       <c r="AI285" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="35:35">
       <c r="AI286" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="35:35">
       <c r="AI287" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -888,8 +888,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. Units: 
-                    </t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -1897,15 +1896,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1959,8 +1956,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>host body product</t>
@@ -2002,15 +1998,13 @@
     <t>sample storage duration</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Duration for which sample was stored Units: 
-                    </t>
+    <t>(Optional) Duration for which sample was stored (Units: years)</t>
   </si>
   <si>
     <t>sample storage temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature at which sample was stored, e.g. -80 Units: 
-                    </t>
+    <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
     <t>sample storage location</t>
@@ -2124,8 +2118,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>host body site</t>
@@ -2137,15 +2130,13 @@
     <t>host height</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The height of subject Units: 
-                    </t>
+    <t>(Optional) The height of subject (Units: mm)</t>
   </si>
   <si>
     <t>host body-mass index</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Body mass index, calculated as weight/(height)squared Units: 
-                    </t>
+    <t>(Optional) Body mass index, calculated as weight/(height)squared (Units: kg/m2)</t>
   </si>
   <si>
     <t>ethnicity</t>
@@ -2307,8 +2298,7 @@
     <t>host total mass</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Total mass of the host at collection, the unit depends on host Units: 
-                    </t>
+    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
     <t>host phenotype</t>
@@ -2320,8 +2310,7 @@
     <t>host body temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Core body temperature of the host when sample was collected Units: 
-                    </t>
+    <t>(Optional) Core body temperature of the host when sample was collected (Units: ºC)</t>
   </si>
   <si>
     <t>female</t>
@@ -2345,22 +2334,19 @@
     <t>temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Temperature of the sample at time of sampling Units: 
-                    </t>
+    <t>(Optional) Temperature of the sample at time of sampling (Units: ºC)</t>
   </si>
   <si>
     <t>salinity</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. Units: 
-                    </t>
+    <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
     <t>time since last toothbrushing</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Specification of the time since last toothbrushing Units: 
-                    </t>
+    <t>(Optional) Specification of the time since last toothbrushing (Units: minutes)</t>
   </si>
   <si>
     <t>host diet</t>
@@ -2390,8 +2376,7 @@
     <t>host pulse</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Resting pulse, measured as beats per minute Units: 
-                    </t>
+    <t>(Optional) Resting pulse, measured as beats per minute (Units: bpm)</t>
   </si>
   <si>
     <t>subspecific genetic lineage</t>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -108,7 +108,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="848">
   <si>
     <t>alias</t>
   </si>
@@ -1338,12 +1338,12 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
   </si>
   <si>
-    <t>Czechia</t>
-  </si>
-  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -2578,12 +2578,6 @@
   </si>
   <si>
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
-  </si>
-  <si>
-    <t>sequencing method</t>
-  </si>
-  <si>
-    <t>(Optional) Sequencing machine used. where possible the term should be taken from the obi list of dna sequencers (http://purl.obolibrary.org/obo/obi_0400103).</t>
   </si>
   <si>
     <t>chemical administration</t>
@@ -4103,7 +4097,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CM2"/>
+  <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4112,7 +4106,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91">
+    <row r="1" spans="1:90">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4383,11 +4377,8 @@
       <c r="CL1" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="CM1" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="2" spans="1:91" ht="150" customHeight="1">
+    </row>
+    <row r="2" spans="1:90" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>229</v>
       </c>
@@ -4657,9 +4648,6 @@
       </c>
       <c r="CL2" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="849">
   <si>
     <t>alias</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -4114,540 +4117,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -4697,328 +4700,328 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AT1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AZ1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="BD1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AT2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AZ2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BD2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AT3" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AZ3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BD3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AT4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AZ4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BD4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT5" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AZ5" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BD5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="E6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AT6" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AZ6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BD6" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="E7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AT7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AZ7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BD7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="E8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AT8" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ8" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BD8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AT9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ9" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BD9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AT10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BD10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AT11" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ11" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BD11" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AT12" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ12" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BD12" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AT13" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ13" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AT14" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ14" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AT15" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ15" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD15" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="E16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AT16" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ16" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5026,1521 +5029,1521 @@
     </row>
     <row r="17" spans="5:56">
       <c r="E17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF17" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AT17" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ17" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD17" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="18" spans="5:56">
       <c r="E18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AT18" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ18" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="5:56">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AT19" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ19" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="5:56">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF20" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AT20" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ20" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="5:56">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AT21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ21" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="5:56">
       <c r="E22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AT22" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ22" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="5:56">
       <c r="E23" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AZ23" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24" spans="5:56">
       <c r="E24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AZ24" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="25" spans="5:56">
       <c r="E25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AZ25" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="5:56">
       <c r="E26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF26" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AZ26" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27" spans="5:56">
       <c r="E27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AZ27" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="5:56">
       <c r="E28" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AZ28" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="5:56">
       <c r="E29" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF29" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AZ29" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="5:56">
       <c r="E30" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AZ30" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31" spans="5:56">
       <c r="AF31" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AZ31" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="32" spans="5:56">
       <c r="AF32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AZ32" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="33" spans="32:52">
       <c r="AF33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AZ33" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="32:52">
       <c r="AF34" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AZ34" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="35" spans="32:52">
       <c r="AF35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AZ35" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="32:52">
       <c r="AF36" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AZ36" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="37" spans="32:52">
       <c r="AF37" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AZ37" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="32:52">
       <c r="AF38" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AZ38" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="32:52">
       <c r="AF39" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AZ39" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="40" spans="32:52">
       <c r="AF40" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AZ40" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="32:52">
       <c r="AF41" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AZ41" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="32:52">
       <c r="AF42" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AZ42" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="43" spans="32:52">
       <c r="AF43" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AZ43" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="32:52">
       <c r="AF44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AZ44" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="45" spans="32:52">
       <c r="AF45" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ45" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="32:52">
       <c r="AF46" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AZ46" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" spans="32:52">
       <c r="AF47" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ47" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="32:52">
       <c r="AF48" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ48" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="49" spans="32:32">
       <c r="AF49" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="32:32">
       <c r="AF50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="32:32">
       <c r="AF51" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="32:32">
       <c r="AF52" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="32:32">
       <c r="AF53" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="32:32">
       <c r="AF54" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="32:32">
       <c r="AF55" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="32:32">
       <c r="AF56" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="32:32">
       <c r="AF57" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="32:32">
       <c r="AF58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="32:32">
       <c r="AF59" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="32:32">
       <c r="AF60" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="32:32">
       <c r="AF61" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="32:32">
       <c r="AF62" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="32:32">
       <c r="AF63" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="32:32">
       <c r="AF64" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="32:32">
       <c r="AF65" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="32:32">
       <c r="AF66" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="67" spans="32:32">
       <c r="AF67" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68" spans="32:32">
       <c r="AF68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="32:32">
       <c r="AF69" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="32:32">
       <c r="AF70" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="32:32">
       <c r="AF71" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="32:32">
       <c r="AF72" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="32:32">
       <c r="AF73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="74" spans="32:32">
       <c r="AF74" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="32:32">
       <c r="AF75" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="32:32">
       <c r="AF76" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="32:32">
       <c r="AF77" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="32:32">
       <c r="AF78" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="32:32">
       <c r="AF79" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="32:32">
       <c r="AF80" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="81" spans="32:32">
       <c r="AF81" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82" spans="32:32">
       <c r="AF82" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="32:32">
       <c r="AF83" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="84" spans="32:32">
       <c r="AF84" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="32:32">
       <c r="AF85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="32:32">
       <c r="AF86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87" spans="32:32">
       <c r="AF87" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="32:32">
       <c r="AF88" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="89" spans="32:32">
       <c r="AF89" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="32:32">
       <c r="AF90" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="91" spans="32:32">
       <c r="AF91" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="32:32">
       <c r="AF92" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="32:32">
       <c r="AF93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="32:32">
       <c r="AF94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="95" spans="32:32">
       <c r="AF95" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="32:32">
       <c r="AF96" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="32:32">
       <c r="AF97" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="32:32">
       <c r="AF98" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="32:32">
       <c r="AF99" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="32:32">
       <c r="AF100" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="101" spans="32:32">
       <c r="AF101" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="102" spans="32:32">
       <c r="AF102" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="32:32">
       <c r="AF103" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="104" spans="32:32">
       <c r="AF104" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="105" spans="32:32">
       <c r="AF105" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="106" spans="32:32">
       <c r="AF106" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="107" spans="32:32">
       <c r="AF107" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="32:32">
       <c r="AF108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="32:32">
       <c r="AF109" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="32:32">
       <c r="AF110" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="32:32">
       <c r="AF111" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="32:32">
       <c r="AF112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="32:32">
       <c r="AF113" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="114" spans="32:32">
       <c r="AF114" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="115" spans="32:32">
       <c r="AF115" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="116" spans="32:32">
       <c r="AF116" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="117" spans="32:32">
       <c r="AF117" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="118" spans="32:32">
       <c r="AF118" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" spans="32:32">
       <c r="AF119" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="120" spans="32:32">
       <c r="AF120" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121" spans="32:32">
       <c r="AF121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122" spans="32:32">
       <c r="AF122" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="32:32">
       <c r="AF123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="32:32">
       <c r="AF124" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="32:32">
       <c r="AF125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="32:32">
       <c r="AF126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="32:32">
       <c r="AF127" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="32:32">
       <c r="AF128" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="32:32">
       <c r="AF129" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="32:32">
       <c r="AF130" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="32:32">
       <c r="AF131" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="32:32">
       <c r="AF132" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="32:32">
       <c r="AF133" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="32:32">
       <c r="AF134" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="32:32">
       <c r="AF135" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="136" spans="32:32">
       <c r="AF136" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="32:32">
       <c r="AF137" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="32:32">
       <c r="AF138" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="32:32">
       <c r="AF139" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" spans="32:32">
       <c r="AF140" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="141" spans="32:32">
       <c r="AF141" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" spans="32:32">
       <c r="AF142" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="143" spans="32:32">
       <c r="AF143" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" spans="32:32">
       <c r="AF144" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="145" spans="32:32">
       <c r="AF145" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="146" spans="32:32">
       <c r="AF146" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="32:32">
       <c r="AF147" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="148" spans="32:32">
       <c r="AF148" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="149" spans="32:32">
       <c r="AF149" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="150" spans="32:32">
       <c r="AF150" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="32:32">
       <c r="AF151" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="32:32">
       <c r="AF152" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="153" spans="32:32">
       <c r="AF153" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="32:32">
       <c r="AF154" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="155" spans="32:32">
       <c r="AF155" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="156" spans="32:32">
       <c r="AF156" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="32:32">
       <c r="AF157" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="158" spans="32:32">
       <c r="AF158" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="32:32">
       <c r="AF159" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="160" spans="32:32">
       <c r="AF160" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" spans="32:32">
       <c r="AF161" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="32:32">
       <c r="AF162" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="32:32">
       <c r="AF163" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="32:32">
       <c r="AF164" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="165" spans="32:32">
       <c r="AF165" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="32:32">
       <c r="AF166" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="167" spans="32:32">
       <c r="AF167" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="168" spans="32:32">
       <c r="AF168" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="169" spans="32:32">
       <c r="AF169" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" spans="32:32">
       <c r="AF170" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="171" spans="32:32">
       <c r="AF171" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="32:32">
       <c r="AF172" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="173" spans="32:32">
       <c r="AF173" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="174" spans="32:32">
       <c r="AF174" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="32:32">
       <c r="AF175" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="176" spans="32:32">
       <c r="AF176" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="32:32">
       <c r="AF177" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="178" spans="32:32">
       <c r="AF178" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="32:32">
       <c r="AF179" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="32:32">
       <c r="AF180" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="32:32">
       <c r="AF181" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="182" spans="32:32">
       <c r="AF182" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="32:32">
       <c r="AF183" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="184" spans="32:32">
       <c r="AF184" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="185" spans="32:32">
       <c r="AF185" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="186" spans="32:32">
       <c r="AF186" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="32:32">
       <c r="AF187" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="188" spans="32:32">
       <c r="AF188" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="32:32">
       <c r="AF189" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="32:32">
       <c r="AF190" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="32:32">
       <c r="AF191" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="32:32">
       <c r="AF192" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="32:32">
       <c r="AF193" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="32:32">
       <c r="AF194" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="32:32">
       <c r="AF195" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="196" spans="32:32">
       <c r="AF196" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="32:32">
       <c r="AF197" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="32:32">
       <c r="AF198" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="199" spans="32:32">
       <c r="AF199" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="200" spans="32:32">
       <c r="AF200" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="32:32">
       <c r="AF201" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="202" spans="32:32">
       <c r="AF202" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="203" spans="32:32">
       <c r="AF203" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="32:32">
       <c r="AF204" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="205" spans="32:32">
       <c r="AF205" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="32:32">
       <c r="AF206" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="207" spans="32:32">
       <c r="AF207" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="208" spans="32:32">
       <c r="AF208" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="32:32">
       <c r="AF209" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="32:32">
       <c r="AF210" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="211" spans="32:32">
       <c r="AF211" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="32:32">
       <c r="AF212" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213" spans="32:32">
       <c r="AF213" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="32:32">
       <c r="AF214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="215" spans="32:32">
       <c r="AF215" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="216" spans="32:32">
       <c r="AF216" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="217" spans="32:32">
       <c r="AF217" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="218" spans="32:32">
       <c r="AF218" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="219" spans="32:32">
       <c r="AF219" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="220" spans="32:32">
       <c r="AF220" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="221" spans="32:32">
       <c r="AF221" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="222" spans="32:32">
       <c r="AF222" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="223" spans="32:32">
       <c r="AF223" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="32:32">
       <c r="AF224" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="225" spans="32:32">
       <c r="AF225" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="226" spans="32:32">
       <c r="AF226" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="227" spans="32:32">
       <c r="AF227" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="228" spans="32:32">
       <c r="AF228" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="229" spans="32:32">
       <c r="AF229" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="230" spans="32:32">
       <c r="AF230" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="231" spans="32:32">
       <c r="AF231" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="232" spans="32:32">
       <c r="AF232" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="32:32">
       <c r="AF233" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="234" spans="32:32">
       <c r="AF234" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="235" spans="32:32">
       <c r="AF235" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="236" spans="32:32">
       <c r="AF236" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="237" spans="32:32">
       <c r="AF237" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="238" spans="32:32">
       <c r="AF238" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="239" spans="32:32">
       <c r="AF239" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="240" spans="32:32">
       <c r="AF240" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="241" spans="32:32">
       <c r="AF241" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="242" spans="32:32">
       <c r="AF242" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="243" spans="32:32">
       <c r="AF243" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244" spans="32:32">
       <c r="AF244" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="245" spans="32:32">
       <c r="AF245" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="246" spans="32:32">
       <c r="AF246" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="247" spans="32:32">
       <c r="AF247" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="248" spans="32:32">
       <c r="AF248" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="32:32">
       <c r="AF249" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="250" spans="32:32">
       <c r="AF250" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="251" spans="32:32">
       <c r="AF251" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="252" spans="32:32">
       <c r="AF252" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="253" spans="32:32">
       <c r="AF253" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="254" spans="32:32">
       <c r="AF254" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="255" spans="32:32">
       <c r="AF255" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="32:32">
       <c r="AF256" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="257" spans="32:32">
       <c r="AF257" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="258" spans="32:32">
       <c r="AF258" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="32:32">
       <c r="AF259" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="260" spans="32:32">
       <c r="AF260" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="261" spans="32:32">
       <c r="AF261" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="262" spans="32:32">
       <c r="AF262" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263" spans="32:32">
       <c r="AF263" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="264" spans="32:32">
       <c r="AF264" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="265" spans="32:32">
       <c r="AF265" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="266" spans="32:32">
       <c r="AF266" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="32:32">
       <c r="AF267" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="268" spans="32:32">
       <c r="AF268" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="269" spans="32:32">
       <c r="AF269" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="270" spans="32:32">
       <c r="AF270" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="271" spans="32:32">
       <c r="AF271" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="272" spans="32:32">
       <c r="AF272" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="273" spans="32:32">
       <c r="AF273" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="274" spans="32:32">
       <c r="AF274" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="275" spans="32:32">
       <c r="AF275" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="276" spans="32:32">
       <c r="AF276" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="277" spans="32:32">
       <c r="AF277" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="278" spans="32:32">
       <c r="AF278" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="279" spans="32:32">
       <c r="AF279" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="280" spans="32:32">
       <c r="AF280" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="281" spans="32:32">
       <c r="AF281" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="282" spans="32:32">
       <c r="AF282" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="283" spans="32:32">
       <c r="AF283" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="284" spans="32:32">
       <c r="AF284" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="285" spans="32:32">
       <c r="AF285" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="286" spans="32:32">
       <c r="AF286" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="287" spans="32:32">
       <c r="AF287" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="288" spans="32:32">
       <c r="AF288" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -120,7 +120,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -138,7 +138,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AF$1:$AF$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="850">
   <si>
     <t>alias</t>
   </si>
@@ -1149,6 +1149,66 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>broad-scale environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>local environmental context</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
+  </si>
+  <si>
+    <t>environmental medium</t>
+  </si>
+  <si>
+    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
+  </si>
+  <si>
+    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
+  </si>
+  <si>
+    <t>sample storage duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1977,6 +2037,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -2017,66 +2080,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>broad-scale environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>local environmental context</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
-  </si>
-  <si>
-    <t>environmental medium</t>
-  </si>
-  <si>
-    <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
-  </si>
-  <si>
-    <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
-  </si>
-  <si>
-    <t>sample storage duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
   </si>
   <si>
     <t>nose/mouth/teeth/throat disorder</t>
@@ -4204,181 +4207,181 @@
         <v>367</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>657</v>
+        <v>369</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>659</v>
+        <v>371</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>661</v>
+        <v>373</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>663</v>
+        <v>375</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>665</v>
+        <v>377</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>667</v>
+        <v>379</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>669</v>
+        <v>381</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>671</v>
+        <v>383</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>673</v>
+        <v>385</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>675</v>
+        <v>387</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
@@ -4476,181 +4479,181 @@
         <v>368</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>658</v>
+        <v>370</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>660</v>
+        <v>372</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>662</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>664</v>
+        <v>376</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>666</v>
+        <v>378</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>668</v>
+        <v>380</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>670</v>
+        <v>382</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>672</v>
+        <v>384</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>674</v>
+        <v>386</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>676</v>
+        <v>388</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -4673,7 +4676,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
@@ -4692,7 +4695,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD288"/>
+  <dimension ref="E1:BD289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4717,17 +4720,17 @@
       <c r="Y1" t="s">
         <v>352</v>
       </c>
-      <c r="AF1" t="s">
-        <v>369</v>
+      <c r="AP1" t="s">
+        <v>389</v>
       </c>
       <c r="AT1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AZ1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="BD1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="5:56">
@@ -4749,17 +4752,17 @@
       <c r="Y2" t="s">
         <v>353</v>
       </c>
-      <c r="AF2" t="s">
-        <v>370</v>
+      <c r="AP2" t="s">
+        <v>390</v>
       </c>
       <c r="AT2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AZ2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BD2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="5:56">
@@ -4775,17 +4778,17 @@
       <c r="Y3" t="s">
         <v>354</v>
       </c>
-      <c r="AF3" t="s">
-        <v>371</v>
+      <c r="AP3" t="s">
+        <v>391</v>
       </c>
       <c r="AT3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AZ3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BD3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="5:56">
@@ -4798,17 +4801,17 @@
       <c r="H4" t="s">
         <v>310</v>
       </c>
-      <c r="AF4" t="s">
-        <v>372</v>
+      <c r="AP4" t="s">
+        <v>392</v>
       </c>
       <c r="AT4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AZ4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BD4" t="s">
-        <v>645</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="5:56">
@@ -4821,17 +4824,17 @@
       <c r="H5" t="s">
         <v>311</v>
       </c>
-      <c r="AF5" t="s">
-        <v>373</v>
+      <c r="AP5" t="s">
+        <v>393</v>
       </c>
       <c r="AT5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AZ5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BD5" t="s">
-        <v>646</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="5:56">
@@ -4841,17 +4844,17 @@
       <c r="H6" t="s">
         <v>312</v>
       </c>
-      <c r="AF6" t="s">
-        <v>374</v>
+      <c r="AP6" t="s">
+        <v>394</v>
       </c>
       <c r="AT6" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AZ6" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BD6" t="s">
-        <v>647</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="5:56">
@@ -4861,167 +4864,167 @@
       <c r="H7" t="s">
         <v>313</v>
       </c>
-      <c r="AF7" t="s">
-        <v>375</v>
+      <c r="AP7" t="s">
+        <v>395</v>
       </c>
       <c r="AT7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BD7" t="s">
-        <v>648</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="AF8" t="s">
-        <v>376</v>
+      <c r="AP8" t="s">
+        <v>396</v>
       </c>
       <c r="AT8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ8" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BD8" t="s">
-        <v>649</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="E9" t="s">
         <v>274</v>
       </c>
-      <c r="AF9" t="s">
-        <v>377</v>
+      <c r="AP9" t="s">
+        <v>397</v>
       </c>
       <c r="AT9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BD9" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="E10" t="s">
         <v>275</v>
       </c>
-      <c r="AF10" t="s">
-        <v>378</v>
+      <c r="AP10" t="s">
+        <v>398</v>
       </c>
       <c r="AT10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BD10" t="s">
-        <v>651</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="AF11" t="s">
-        <v>379</v>
+      <c r="AP11" t="s">
+        <v>399</v>
       </c>
       <c r="AT11" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BD11" t="s">
-        <v>652</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="E12" t="s">
         <v>277</v>
       </c>
-      <c r="AF12" t="s">
-        <v>380</v>
+      <c r="AP12" t="s">
+        <v>400</v>
       </c>
       <c r="AT12" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ12" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD12" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="E13" t="s">
         <v>278</v>
       </c>
-      <c r="AF13" t="s">
-        <v>381</v>
+      <c r="AP13" t="s">
+        <v>401</v>
       </c>
       <c r="AT13" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ13" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD13" t="s">
-        <v>653</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="E14" t="s">
         <v>279</v>
       </c>
-      <c r="AF14" t="s">
-        <v>382</v>
+      <c r="AP14" t="s">
+        <v>402</v>
       </c>
       <c r="AT14" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ14" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD14" t="s">
-        <v>654</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="E15" t="s">
         <v>280</v>
       </c>
-      <c r="AF15" t="s">
-        <v>383</v>
+      <c r="AP15" t="s">
+        <v>403</v>
       </c>
       <c r="AT15" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ15" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD15" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="E16" t="s">
         <v>281</v>
       </c>
-      <c r="AF16" t="s">
-        <v>384</v>
+      <c r="AP16" t="s">
+        <v>404</v>
       </c>
       <c r="AT16" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ16" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5031,1519 +5034,1524 @@
       <c r="E17" t="s">
         <v>282</v>
       </c>
-      <c r="AF17" t="s">
-        <v>385</v>
+      <c r="AP17" t="s">
+        <v>405</v>
       </c>
       <c r="AT17" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ17" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD17" t="s">
-        <v>656</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="5:56">
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="AF18" t="s">
-        <v>386</v>
+      <c r="AP18" t="s">
+        <v>406</v>
       </c>
       <c r="AT18" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ18" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="5:56">
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="AF19" t="s">
-        <v>387</v>
+      <c r="AP19" t="s">
+        <v>407</v>
       </c>
       <c r="AT19" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ19" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="5:56">
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="AF20" t="s">
-        <v>388</v>
+      <c r="AP20" t="s">
+        <v>408</v>
       </c>
       <c r="AT20" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ20" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="5:56">
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="AF21" t="s">
-        <v>389</v>
+      <c r="AP21" t="s">
+        <v>409</v>
       </c>
       <c r="AT21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="22" spans="5:56">
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="AF22" t="s">
-        <v>390</v>
+      <c r="AP22" t="s">
+        <v>410</v>
       </c>
       <c r="AT22" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AZ22" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="5:56">
       <c r="E23" t="s">
         <v>288</v>
       </c>
-      <c r="AF23" t="s">
-        <v>391</v>
+      <c r="AP23" t="s">
+        <v>411</v>
       </c>
       <c r="AZ23" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="5:56">
       <c r="E24" t="s">
         <v>289</v>
       </c>
-      <c r="AF24" t="s">
-        <v>392</v>
+      <c r="AP24" t="s">
+        <v>412</v>
       </c>
       <c r="AZ24" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="5:56">
       <c r="E25" t="s">
         <v>290</v>
       </c>
-      <c r="AF25" t="s">
-        <v>393</v>
+      <c r="AP25" t="s">
+        <v>413</v>
       </c>
       <c r="AZ25" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="5:56">
       <c r="E26" t="s">
         <v>291</v>
       </c>
-      <c r="AF26" t="s">
-        <v>394</v>
+      <c r="AP26" t="s">
+        <v>414</v>
       </c>
       <c r="AZ26" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="5:56">
       <c r="E27" t="s">
         <v>292</v>
       </c>
-      <c r="AF27" t="s">
-        <v>395</v>
+      <c r="AP27" t="s">
+        <v>415</v>
       </c>
       <c r="AZ27" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="28" spans="5:56">
       <c r="E28" t="s">
         <v>293</v>
       </c>
-      <c r="AF28" t="s">
-        <v>396</v>
+      <c r="AP28" t="s">
+        <v>416</v>
       </c>
       <c r="AZ28" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="5:56">
       <c r="E29" t="s">
         <v>294</v>
       </c>
-      <c r="AF29" t="s">
-        <v>397</v>
+      <c r="AP29" t="s">
+        <v>417</v>
       </c>
       <c r="AZ29" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="5:56">
       <c r="E30" t="s">
         <v>295</v>
       </c>
-      <c r="AF30" t="s">
-        <v>398</v>
+      <c r="AP30" t="s">
+        <v>418</v>
       </c>
       <c r="AZ30" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="5:56">
-      <c r="AF31" t="s">
-        <v>399</v>
+      <c r="AP31" t="s">
+        <v>419</v>
       </c>
       <c r="AZ31" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="5:56">
-      <c r="AF32" t="s">
-        <v>400</v>
+      <c r="AP32" t="s">
+        <v>420</v>
       </c>
       <c r="AZ32" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="33" spans="32:52">
-      <c r="AF33" t="s">
-        <v>401</v>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="33" spans="42:52">
+      <c r="AP33" t="s">
+        <v>421</v>
       </c>
       <c r="AZ33" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="34" spans="32:52">
-      <c r="AF34" t="s">
-        <v>402</v>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="42:52">
+      <c r="AP34" t="s">
+        <v>422</v>
       </c>
       <c r="AZ34" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="35" spans="32:52">
-      <c r="AF35" t="s">
-        <v>403</v>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="35" spans="42:52">
+      <c r="AP35" t="s">
+        <v>423</v>
       </c>
       <c r="AZ35" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="36" spans="32:52">
-      <c r="AF36" t="s">
-        <v>404</v>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" spans="42:52">
+      <c r="AP36" t="s">
+        <v>424</v>
       </c>
       <c r="AZ36" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="37" spans="32:52">
-      <c r="AF37" t="s">
-        <v>405</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="37" spans="42:52">
+      <c r="AP37" t="s">
+        <v>425</v>
       </c>
       <c r="AZ37" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="38" spans="32:52">
-      <c r="AF38" t="s">
-        <v>406</v>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="38" spans="42:52">
+      <c r="AP38" t="s">
+        <v>426</v>
       </c>
       <c r="AZ38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="39" spans="32:52">
-      <c r="AF39" t="s">
-        <v>407</v>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="39" spans="42:52">
+      <c r="AP39" t="s">
+        <v>427</v>
       </c>
       <c r="AZ39" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="40" spans="32:52">
-      <c r="AF40" t="s">
-        <v>408</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="42:52">
+      <c r="AP40" t="s">
+        <v>428</v>
       </c>
       <c r="AZ40" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="41" spans="32:52">
-      <c r="AF41" t="s">
-        <v>409</v>
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="42:52">
+      <c r="AP41" t="s">
+        <v>429</v>
       </c>
       <c r="AZ41" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="42" spans="32:52">
-      <c r="AF42" t="s">
-        <v>410</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="42" spans="42:52">
+      <c r="AP42" t="s">
+        <v>430</v>
       </c>
       <c r="AZ42" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="43" spans="32:52">
-      <c r="AF43" t="s">
-        <v>411</v>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="43" spans="42:52">
+      <c r="AP43" t="s">
+        <v>431</v>
       </c>
       <c r="AZ43" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="44" spans="32:52">
-      <c r="AF44" t="s">
-        <v>412</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="42:52">
+      <c r="AP44" t="s">
+        <v>432</v>
       </c>
       <c r="AZ44" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="45" spans="32:52">
-      <c r="AF45" t="s">
-        <v>413</v>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="45" spans="42:52">
+      <c r="AP45" t="s">
+        <v>433</v>
       </c>
       <c r="AZ45" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="46" spans="32:52">
-      <c r="AF46" t="s">
-        <v>414</v>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="46" spans="42:52">
+      <c r="AP46" t="s">
+        <v>434</v>
       </c>
       <c r="AZ46" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="47" spans="32:52">
-      <c r="AF47" t="s">
-        <v>415</v>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="42:52">
+      <c r="AP47" t="s">
+        <v>435</v>
       </c>
       <c r="AZ47" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="48" spans="32:52">
-      <c r="AF48" t="s">
-        <v>416</v>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="48" spans="42:52">
+      <c r="AP48" t="s">
+        <v>436</v>
       </c>
       <c r="AZ48" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="49" spans="32:32">
-      <c r="AF49" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="50" spans="32:32">
-      <c r="AF50" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="51" spans="32:32">
-      <c r="AF51" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="52" spans="32:32">
-      <c r="AF52" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="53" spans="32:32">
-      <c r="AF53" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="54" spans="32:32">
-      <c r="AF54" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="55" spans="32:32">
-      <c r="AF55" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="56" spans="32:32">
-      <c r="AF56" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="57" spans="32:32">
-      <c r="AF57" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="58" spans="32:32">
-      <c r="AF58" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="59" spans="32:32">
-      <c r="AF59" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="60" spans="32:32">
-      <c r="AF60" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="61" spans="32:32">
-      <c r="AF61" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="62" spans="32:32">
-      <c r="AF62" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" spans="32:32">
-      <c r="AF63" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="64" spans="32:32">
-      <c r="AF64" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="65" spans="32:32">
-      <c r="AF65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="66" spans="32:32">
-      <c r="AF66" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="67" spans="32:32">
-      <c r="AF67" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="68" spans="32:32">
-      <c r="AF68" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="69" spans="32:32">
-      <c r="AF69" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="49" spans="42:42">
+      <c r="AP49" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="70" spans="32:32">
-      <c r="AF70" t="s">
+    <row r="50" spans="42:42">
+      <c r="AP50" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="71" spans="32:32">
-      <c r="AF71" t="s">
+    <row r="51" spans="42:42">
+      <c r="AP51" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="72" spans="32:32">
-      <c r="AF72" t="s">
+    <row r="52" spans="42:42">
+      <c r="AP52" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="73" spans="32:32">
-      <c r="AF73" t="s">
+    <row r="53" spans="42:42">
+      <c r="AP53" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="74" spans="32:32">
-      <c r="AF74" t="s">
+    <row r="54" spans="42:42">
+      <c r="AP54" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="75" spans="32:32">
-      <c r="AF75" t="s">
+    <row r="55" spans="42:42">
+      <c r="AP55" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="32:32">
-      <c r="AF76" t="s">
+    <row r="56" spans="42:42">
+      <c r="AP56" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="77" spans="32:32">
-      <c r="AF77" t="s">
+    <row r="57" spans="42:42">
+      <c r="AP57" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="78" spans="32:32">
-      <c r="AF78" t="s">
+    <row r="58" spans="42:42">
+      <c r="AP58" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="32:32">
-      <c r="AF79" t="s">
+    <row r="59" spans="42:42">
+      <c r="AP59" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="80" spans="32:32">
-      <c r="AF80" t="s">
+    <row r="60" spans="42:42">
+      <c r="AP60" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="81" spans="32:32">
-      <c r="AF81" t="s">
+    <row r="61" spans="42:42">
+      <c r="AP61" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="32:32">
-      <c r="AF82" t="s">
+    <row r="62" spans="42:42">
+      <c r="AP62" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="83" spans="32:32">
-      <c r="AF83" t="s">
+    <row r="63" spans="42:42">
+      <c r="AP63" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="84" spans="32:32">
-      <c r="AF84" t="s">
+    <row r="64" spans="42:42">
+      <c r="AP64" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="85" spans="32:32">
-      <c r="AF85" t="s">
+    <row r="65" spans="42:42">
+      <c r="AP65" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="86" spans="32:32">
-      <c r="AF86" t="s">
+    <row r="66" spans="42:42">
+      <c r="AP66" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="87" spans="32:32">
-      <c r="AF87" t="s">
+    <row r="67" spans="42:42">
+      <c r="AP67" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="88" spans="32:32">
-      <c r="AF88" t="s">
+    <row r="68" spans="42:42">
+      <c r="AP68" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="89" spans="32:32">
-      <c r="AF89" t="s">
+    <row r="69" spans="42:42">
+      <c r="AP69" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="90" spans="32:32">
-      <c r="AF90" t="s">
+    <row r="70" spans="42:42">
+      <c r="AP70" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="91" spans="32:32">
-      <c r="AF91" t="s">
+    <row r="71" spans="42:42">
+      <c r="AP71" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="92" spans="32:32">
-      <c r="AF92" t="s">
+    <row r="72" spans="42:42">
+      <c r="AP72" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="32:32">
-      <c r="AF93" t="s">
+    <row r="73" spans="42:42">
+      <c r="AP73" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="94" spans="32:32">
-      <c r="AF94" t="s">
+    <row r="74" spans="42:42">
+      <c r="AP74" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="95" spans="32:32">
-      <c r="AF95" t="s">
+    <row r="75" spans="42:42">
+      <c r="AP75" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="96" spans="32:32">
-      <c r="AF96" t="s">
+    <row r="76" spans="42:42">
+      <c r="AP76" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="97" spans="32:32">
-      <c r="AF97" t="s">
+    <row r="77" spans="42:42">
+      <c r="AP77" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="98" spans="32:32">
-      <c r="AF98" t="s">
+    <row r="78" spans="42:42">
+      <c r="AP78" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="99" spans="32:32">
-      <c r="AF99" t="s">
+    <row r="79" spans="42:42">
+      <c r="AP79" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="100" spans="32:32">
-      <c r="AF100" t="s">
+    <row r="80" spans="42:42">
+      <c r="AP80" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="101" spans="32:32">
-      <c r="AF101" t="s">
+    <row r="81" spans="42:42">
+      <c r="AP81" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="102" spans="32:32">
-      <c r="AF102" t="s">
+    <row r="82" spans="42:42">
+      <c r="AP82" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="32:32">
-      <c r="AF103" t="s">
+    <row r="83" spans="42:42">
+      <c r="AP83" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="104" spans="32:32">
-      <c r="AF104" t="s">
+    <row r="84" spans="42:42">
+      <c r="AP84" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="105" spans="32:32">
-      <c r="AF105" t="s">
+    <row r="85" spans="42:42">
+      <c r="AP85" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="106" spans="32:32">
-      <c r="AF106" t="s">
+    <row r="86" spans="42:42">
+      <c r="AP86" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="107" spans="32:32">
-      <c r="AF107" t="s">
+    <row r="87" spans="42:42">
+      <c r="AP87" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="108" spans="32:32">
-      <c r="AF108" t="s">
+    <row r="88" spans="42:42">
+      <c r="AP88" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="109" spans="32:32">
-      <c r="AF109" t="s">
+    <row r="89" spans="42:42">
+      <c r="AP89" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="110" spans="32:32">
-      <c r="AF110" t="s">
+    <row r="90" spans="42:42">
+      <c r="AP90" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="111" spans="32:32">
-      <c r="AF111" t="s">
+    <row r="91" spans="42:42">
+      <c r="AP91" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="112" spans="32:32">
-      <c r="AF112" t="s">
+    <row r="92" spans="42:42">
+      <c r="AP92" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="113" spans="32:32">
-      <c r="AF113" t="s">
+    <row r="93" spans="42:42">
+      <c r="AP93" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="114" spans="32:32">
-      <c r="AF114" t="s">
+    <row r="94" spans="42:42">
+      <c r="AP94" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="115" spans="32:32">
-      <c r="AF115" t="s">
+    <row r="95" spans="42:42">
+      <c r="AP95" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="116" spans="32:32">
-      <c r="AF116" t="s">
+    <row r="96" spans="42:42">
+      <c r="AP96" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="117" spans="32:32">
-      <c r="AF117" t="s">
+    <row r="97" spans="42:42">
+      <c r="AP97" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="118" spans="32:32">
-      <c r="AF118" t="s">
+    <row r="98" spans="42:42">
+      <c r="AP98" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="119" spans="32:32">
-      <c r="AF119" t="s">
+    <row r="99" spans="42:42">
+      <c r="AP99" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="32:32">
-      <c r="AF120" t="s">
+    <row r="100" spans="42:42">
+      <c r="AP100" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="121" spans="32:32">
-      <c r="AF121" t="s">
+    <row r="101" spans="42:42">
+      <c r="AP101" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="122" spans="32:32">
-      <c r="AF122" t="s">
+    <row r="102" spans="42:42">
+      <c r="AP102" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="123" spans="32:32">
-      <c r="AF123" t="s">
+    <row r="103" spans="42:42">
+      <c r="AP103" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="124" spans="32:32">
-      <c r="AF124" t="s">
+    <row r="104" spans="42:42">
+      <c r="AP104" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="125" spans="32:32">
-      <c r="AF125" t="s">
+    <row r="105" spans="42:42">
+      <c r="AP105" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="126" spans="32:32">
-      <c r="AF126" t="s">
+    <row r="106" spans="42:42">
+      <c r="AP106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="127" spans="32:32">
-      <c r="AF127" t="s">
+    <row r="107" spans="42:42">
+      <c r="AP107" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="128" spans="32:32">
-      <c r="AF128" t="s">
+    <row r="108" spans="42:42">
+      <c r="AP108" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="129" spans="32:32">
-      <c r="AF129" t="s">
+    <row r="109" spans="42:42">
+      <c r="AP109" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="130" spans="32:32">
-      <c r="AF130" t="s">
+    <row r="110" spans="42:42">
+      <c r="AP110" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="131" spans="32:32">
-      <c r="AF131" t="s">
+    <row r="111" spans="42:42">
+      <c r="AP111" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="132" spans="32:32">
-      <c r="AF132" t="s">
+    <row r="112" spans="42:42">
+      <c r="AP112" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="133" spans="32:32">
-      <c r="AF133" t="s">
+    <row r="113" spans="42:42">
+      <c r="AP113" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="134" spans="32:32">
-      <c r="AF134" t="s">
+    <row r="114" spans="42:42">
+      <c r="AP114" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="135" spans="32:32">
-      <c r="AF135" t="s">
+    <row r="115" spans="42:42">
+      <c r="AP115" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="136" spans="32:32">
-      <c r="AF136" t="s">
+    <row r="116" spans="42:42">
+      <c r="AP116" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="137" spans="32:32">
-      <c r="AF137" t="s">
+    <row r="117" spans="42:42">
+      <c r="AP117" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="138" spans="32:32">
-      <c r="AF138" t="s">
+    <row r="118" spans="42:42">
+      <c r="AP118" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="139" spans="32:32">
-      <c r="AF139" t="s">
+    <row r="119" spans="42:42">
+      <c r="AP119" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="140" spans="32:32">
-      <c r="AF140" t="s">
+    <row r="120" spans="42:42">
+      <c r="AP120" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="32:32">
-      <c r="AF141" t="s">
+    <row r="121" spans="42:42">
+      <c r="AP121" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="142" spans="32:32">
-      <c r="AF142" t="s">
+    <row r="122" spans="42:42">
+      <c r="AP122" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="143" spans="32:32">
-      <c r="AF143" t="s">
+    <row r="123" spans="42:42">
+      <c r="AP123" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="144" spans="32:32">
-      <c r="AF144" t="s">
+    <row r="124" spans="42:42">
+      <c r="AP124" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="145" spans="32:32">
-      <c r="AF145" t="s">
+    <row r="125" spans="42:42">
+      <c r="AP125" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="146" spans="32:32">
-      <c r="AF146" t="s">
+    <row r="126" spans="42:42">
+      <c r="AP126" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="147" spans="32:32">
-      <c r="AF147" t="s">
+    <row r="127" spans="42:42">
+      <c r="AP127" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="148" spans="32:32">
-      <c r="AF148" t="s">
+    <row r="128" spans="42:42">
+      <c r="AP128" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="149" spans="32:32">
-      <c r="AF149" t="s">
+    <row r="129" spans="42:42">
+      <c r="AP129" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="150" spans="32:32">
-      <c r="AF150" t="s">
+    <row r="130" spans="42:42">
+      <c r="AP130" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="151" spans="32:32">
-      <c r="AF151" t="s">
+    <row r="131" spans="42:42">
+      <c r="AP131" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="152" spans="32:32">
-      <c r="AF152" t="s">
+    <row r="132" spans="42:42">
+      <c r="AP132" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="153" spans="32:32">
-      <c r="AF153" t="s">
+    <row r="133" spans="42:42">
+      <c r="AP133" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="154" spans="32:32">
-      <c r="AF154" t="s">
+    <row r="134" spans="42:42">
+      <c r="AP134" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="155" spans="32:32">
-      <c r="AF155" t="s">
+    <row r="135" spans="42:42">
+      <c r="AP135" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="156" spans="32:32">
-      <c r="AF156" t="s">
+    <row r="136" spans="42:42">
+      <c r="AP136" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="157" spans="32:32">
-      <c r="AF157" t="s">
+    <row r="137" spans="42:42">
+      <c r="AP137" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="158" spans="32:32">
-      <c r="AF158" t="s">
+    <row r="138" spans="42:42">
+      <c r="AP138" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="159" spans="32:32">
-      <c r="AF159" t="s">
+    <row r="139" spans="42:42">
+      <c r="AP139" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="160" spans="32:32">
-      <c r="AF160" t="s">
+    <row r="140" spans="42:42">
+      <c r="AP140" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="161" spans="32:32">
-      <c r="AF161" t="s">
+    <row r="141" spans="42:42">
+      <c r="AP141" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="162" spans="32:32">
-      <c r="AF162" t="s">
+    <row r="142" spans="42:42">
+      <c r="AP142" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="163" spans="32:32">
-      <c r="AF163" t="s">
+    <row r="143" spans="42:42">
+      <c r="AP143" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="164" spans="32:32">
-      <c r="AF164" t="s">
+    <row r="144" spans="42:42">
+      <c r="AP144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="165" spans="32:32">
-      <c r="AF165" t="s">
+    <row r="145" spans="42:42">
+      <c r="AP145" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="166" spans="32:32">
-      <c r="AF166" t="s">
+    <row r="146" spans="42:42">
+      <c r="AP146" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="167" spans="32:32">
-      <c r="AF167" t="s">
+    <row r="147" spans="42:42">
+      <c r="AP147" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="168" spans="32:32">
-      <c r="AF168" t="s">
+    <row r="148" spans="42:42">
+      <c r="AP148" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="169" spans="32:32">
-      <c r="AF169" t="s">
+    <row r="149" spans="42:42">
+      <c r="AP149" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="170" spans="32:32">
-      <c r="AF170" t="s">
+    <row r="150" spans="42:42">
+      <c r="AP150" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="171" spans="32:32">
-      <c r="AF171" t="s">
+    <row r="151" spans="42:42">
+      <c r="AP151" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="172" spans="32:32">
-      <c r="AF172" t="s">
+    <row r="152" spans="42:42">
+      <c r="AP152" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="173" spans="32:32">
-      <c r="AF173" t="s">
+    <row r="153" spans="42:42">
+      <c r="AP153" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="174" spans="32:32">
-      <c r="AF174" t="s">
+    <row r="154" spans="42:42">
+      <c r="AP154" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="175" spans="32:32">
-      <c r="AF175" t="s">
+    <row r="155" spans="42:42">
+      <c r="AP155" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="176" spans="32:32">
-      <c r="AF176" t="s">
+    <row r="156" spans="42:42">
+      <c r="AP156" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="177" spans="32:32">
-      <c r="AF177" t="s">
+    <row r="157" spans="42:42">
+      <c r="AP157" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="178" spans="32:32">
-      <c r="AF178" t="s">
+    <row r="158" spans="42:42">
+      <c r="AP158" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="179" spans="32:32">
-      <c r="AF179" t="s">
+    <row r="159" spans="42:42">
+      <c r="AP159" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="180" spans="32:32">
-      <c r="AF180" t="s">
+    <row r="160" spans="42:42">
+      <c r="AP160" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="181" spans="32:32">
-      <c r="AF181" t="s">
+    <row r="161" spans="42:42">
+      <c r="AP161" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="182" spans="32:32">
-      <c r="AF182" t="s">
+    <row r="162" spans="42:42">
+      <c r="AP162" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="183" spans="32:32">
-      <c r="AF183" t="s">
+    <row r="163" spans="42:42">
+      <c r="AP163" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="32:32">
-      <c r="AF184" t="s">
+    <row r="164" spans="42:42">
+      <c r="AP164" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="185" spans="32:32">
-      <c r="AF185" t="s">
+    <row r="165" spans="42:42">
+      <c r="AP165" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="186" spans="32:32">
-      <c r="AF186" t="s">
+    <row r="166" spans="42:42">
+      <c r="AP166" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="187" spans="32:32">
-      <c r="AF187" t="s">
+    <row r="167" spans="42:42">
+      <c r="AP167" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="188" spans="32:32">
-      <c r="AF188" t="s">
+    <row r="168" spans="42:42">
+      <c r="AP168" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="189" spans="32:32">
-      <c r="AF189" t="s">
+    <row r="169" spans="42:42">
+      <c r="AP169" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="190" spans="32:32">
-      <c r="AF190" t="s">
+    <row r="170" spans="42:42">
+      <c r="AP170" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="191" spans="32:32">
-      <c r="AF191" t="s">
+    <row r="171" spans="42:42">
+      <c r="AP171" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="192" spans="32:32">
-      <c r="AF192" t="s">
+    <row r="172" spans="42:42">
+      <c r="AP172" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="193" spans="32:32">
-      <c r="AF193" t="s">
+    <row r="173" spans="42:42">
+      <c r="AP173" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="194" spans="32:32">
-      <c r="AF194" t="s">
+    <row r="174" spans="42:42">
+      <c r="AP174" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="195" spans="32:32">
-      <c r="AF195" t="s">
+    <row r="175" spans="42:42">
+      <c r="AP175" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="196" spans="32:32">
-      <c r="AF196" t="s">
+    <row r="176" spans="42:42">
+      <c r="AP176" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="197" spans="32:32">
-      <c r="AF197" t="s">
+    <row r="177" spans="42:42">
+      <c r="AP177" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="198" spans="32:32">
-      <c r="AF198" t="s">
+    <row r="178" spans="42:42">
+      <c r="AP178" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="199" spans="32:32">
-      <c r="AF199" t="s">
+    <row r="179" spans="42:42">
+      <c r="AP179" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="200" spans="32:32">
-      <c r="AF200" t="s">
+    <row r="180" spans="42:42">
+      <c r="AP180" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="201" spans="32:32">
-      <c r="AF201" t="s">
+    <row r="181" spans="42:42">
+      <c r="AP181" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="202" spans="32:32">
-      <c r="AF202" t="s">
+    <row r="182" spans="42:42">
+      <c r="AP182" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="203" spans="32:32">
-      <c r="AF203" t="s">
+    <row r="183" spans="42:42">
+      <c r="AP183" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="204" spans="32:32">
-      <c r="AF204" t="s">
+    <row r="184" spans="42:42">
+      <c r="AP184" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="205" spans="32:32">
-      <c r="AF205" t="s">
+    <row r="185" spans="42:42">
+      <c r="AP185" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="206" spans="32:32">
-      <c r="AF206" t="s">
+    <row r="186" spans="42:42">
+      <c r="AP186" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="207" spans="32:32">
-      <c r="AF207" t="s">
+    <row r="187" spans="42:42">
+      <c r="AP187" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="208" spans="32:32">
-      <c r="AF208" t="s">
+    <row r="188" spans="42:42">
+      <c r="AP188" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="209" spans="32:32">
-      <c r="AF209" t="s">
+    <row r="189" spans="42:42">
+      <c r="AP189" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="210" spans="32:32">
-      <c r="AF210" t="s">
+    <row r="190" spans="42:42">
+      <c r="AP190" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="211" spans="32:32">
-      <c r="AF211" t="s">
+    <row r="191" spans="42:42">
+      <c r="AP191" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="212" spans="32:32">
-      <c r="AF212" t="s">
+    <row r="192" spans="42:42">
+      <c r="AP192" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="213" spans="32:32">
-      <c r="AF213" t="s">
+    <row r="193" spans="42:42">
+      <c r="AP193" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="214" spans="32:32">
-      <c r="AF214" t="s">
+    <row r="194" spans="42:42">
+      <c r="AP194" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="215" spans="32:32">
-      <c r="AF215" t="s">
+    <row r="195" spans="42:42">
+      <c r="AP195" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="216" spans="32:32">
-      <c r="AF216" t="s">
+    <row r="196" spans="42:42">
+      <c r="AP196" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="217" spans="32:32">
-      <c r="AF217" t="s">
+    <row r="197" spans="42:42">
+      <c r="AP197" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="218" spans="32:32">
-      <c r="AF218" t="s">
+    <row r="198" spans="42:42">
+      <c r="AP198" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="219" spans="32:32">
-      <c r="AF219" t="s">
+    <row r="199" spans="42:42">
+      <c r="AP199" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="220" spans="32:32">
-      <c r="AF220" t="s">
+    <row r="200" spans="42:42">
+      <c r="AP200" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="221" spans="32:32">
-      <c r="AF221" t="s">
+    <row r="201" spans="42:42">
+      <c r="AP201" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="222" spans="32:32">
-      <c r="AF222" t="s">
+    <row r="202" spans="42:42">
+      <c r="AP202" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="223" spans="32:32">
-      <c r="AF223" t="s">
+    <row r="203" spans="42:42">
+      <c r="AP203" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="224" spans="32:32">
-      <c r="AF224" t="s">
+    <row r="204" spans="42:42">
+      <c r="AP204" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="225" spans="32:32">
-      <c r="AF225" t="s">
+    <row r="205" spans="42:42">
+      <c r="AP205" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="226" spans="32:32">
-      <c r="AF226" t="s">
+    <row r="206" spans="42:42">
+      <c r="AP206" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="227" spans="32:32">
-      <c r="AF227" t="s">
+    <row r="207" spans="42:42">
+      <c r="AP207" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="228" spans="32:32">
-      <c r="AF228" t="s">
+    <row r="208" spans="42:42">
+      <c r="AP208" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="229" spans="32:32">
-      <c r="AF229" t="s">
+    <row r="209" spans="42:42">
+      <c r="AP209" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="230" spans="32:32">
-      <c r="AF230" t="s">
+    <row r="210" spans="42:42">
+      <c r="AP210" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="231" spans="32:32">
-      <c r="AF231" t="s">
+    <row r="211" spans="42:42">
+      <c r="AP211" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="232" spans="32:32">
-      <c r="AF232" t="s">
+    <row r="212" spans="42:42">
+      <c r="AP212" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="233" spans="32:32">
-      <c r="AF233" t="s">
+    <row r="213" spans="42:42">
+      <c r="AP213" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="234" spans="32:32">
-      <c r="AF234" t="s">
+    <row r="214" spans="42:42">
+      <c r="AP214" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="235" spans="32:32">
-      <c r="AF235" t="s">
+    <row r="215" spans="42:42">
+      <c r="AP215" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="236" spans="32:32">
-      <c r="AF236" t="s">
+    <row r="216" spans="42:42">
+      <c r="AP216" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="237" spans="32:32">
-      <c r="AF237" t="s">
+    <row r="217" spans="42:42">
+      <c r="AP217" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="238" spans="32:32">
-      <c r="AF238" t="s">
+    <row r="218" spans="42:42">
+      <c r="AP218" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="239" spans="32:32">
-      <c r="AF239" t="s">
+    <row r="219" spans="42:42">
+      <c r="AP219" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="240" spans="32:32">
-      <c r="AF240" t="s">
+    <row r="220" spans="42:42">
+      <c r="AP220" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="241" spans="32:32">
-      <c r="AF241" t="s">
+    <row r="221" spans="42:42">
+      <c r="AP221" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="242" spans="32:32">
-      <c r="AF242" t="s">
+    <row r="222" spans="42:42">
+      <c r="AP222" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="243" spans="32:32">
-      <c r="AF243" t="s">
+    <row r="223" spans="42:42">
+      <c r="AP223" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="244" spans="32:32">
-      <c r="AF244" t="s">
+    <row r="224" spans="42:42">
+      <c r="AP224" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="245" spans="32:32">
-      <c r="AF245" t="s">
+    <row r="225" spans="42:42">
+      <c r="AP225" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="246" spans="32:32">
-      <c r="AF246" t="s">
+    <row r="226" spans="42:42">
+      <c r="AP226" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="247" spans="32:32">
-      <c r="AF247" t="s">
+    <row r="227" spans="42:42">
+      <c r="AP227" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="248" spans="32:32">
-      <c r="AF248" t="s">
+    <row r="228" spans="42:42">
+      <c r="AP228" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="249" spans="32:32">
-      <c r="AF249" t="s">
+    <row r="229" spans="42:42">
+      <c r="AP229" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="250" spans="32:32">
-      <c r="AF250" t="s">
+    <row r="230" spans="42:42">
+      <c r="AP230" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="251" spans="32:32">
-      <c r="AF251" t="s">
+    <row r="231" spans="42:42">
+      <c r="AP231" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="252" spans="32:32">
-      <c r="AF252" t="s">
+    <row r="232" spans="42:42">
+      <c r="AP232" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="253" spans="32:32">
-      <c r="AF253" t="s">
+    <row r="233" spans="42:42">
+      <c r="AP233" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="254" spans="32:32">
-      <c r="AF254" t="s">
+    <row r="234" spans="42:42">
+      <c r="AP234" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="255" spans="32:32">
-      <c r="AF255" t="s">
+    <row r="235" spans="42:42">
+      <c r="AP235" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="256" spans="32:32">
-      <c r="AF256" t="s">
+    <row r="236" spans="42:42">
+      <c r="AP236" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="32:32">
-      <c r="AF257" t="s">
+    <row r="237" spans="42:42">
+      <c r="AP237" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="258" spans="32:32">
-      <c r="AF258" t="s">
+    <row r="238" spans="42:42">
+      <c r="AP238" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="259" spans="32:32">
-      <c r="AF259" t="s">
+    <row r="239" spans="42:42">
+      <c r="AP239" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="260" spans="32:32">
-      <c r="AF260" t="s">
+    <row r="240" spans="42:42">
+      <c r="AP240" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="261" spans="32:32">
-      <c r="AF261" t="s">
+    <row r="241" spans="42:42">
+      <c r="AP241" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="262" spans="32:32">
-      <c r="AF262" t="s">
+    <row r="242" spans="42:42">
+      <c r="AP242" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="263" spans="32:32">
-      <c r="AF263" t="s">
+    <row r="243" spans="42:42">
+      <c r="AP243" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="264" spans="32:32">
-      <c r="AF264" t="s">
+    <row r="244" spans="42:42">
+      <c r="AP244" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="265" spans="32:32">
-      <c r="AF265" t="s">
+    <row r="245" spans="42:42">
+      <c r="AP245" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="266" spans="32:32">
-      <c r="AF266" t="s">
+    <row r="246" spans="42:42">
+      <c r="AP246" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="267" spans="32:32">
-      <c r="AF267" t="s">
+    <row r="247" spans="42:42">
+      <c r="AP247" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="268" spans="32:32">
-      <c r="AF268" t="s">
+    <row r="248" spans="42:42">
+      <c r="AP248" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="269" spans="32:32">
-      <c r="AF269" t="s">
+    <row r="249" spans="42:42">
+      <c r="AP249" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="270" spans="32:32">
-      <c r="AF270" t="s">
+    <row r="250" spans="42:42">
+      <c r="AP250" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="271" spans="32:32">
-      <c r="AF271" t="s">
+    <row r="251" spans="42:42">
+      <c r="AP251" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="272" spans="32:32">
-      <c r="AF272" t="s">
+    <row r="252" spans="42:42">
+      <c r="AP252" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="273" spans="32:32">
-      <c r="AF273" t="s">
+    <row r="253" spans="42:42">
+      <c r="AP253" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="274" spans="32:32">
-      <c r="AF274" t="s">
+    <row r="254" spans="42:42">
+      <c r="AP254" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="275" spans="32:32">
-      <c r="AF275" t="s">
+    <row r="255" spans="42:42">
+      <c r="AP255" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="276" spans="32:32">
-      <c r="AF276" t="s">
+    <row r="256" spans="42:42">
+      <c r="AP256" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="277" spans="32:32">
-      <c r="AF277" t="s">
+    <row r="257" spans="42:42">
+      <c r="AP257" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="278" spans="32:32">
-      <c r="AF278" t="s">
+    <row r="258" spans="42:42">
+      <c r="AP258" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="279" spans="32:32">
-      <c r="AF279" t="s">
+    <row r="259" spans="42:42">
+      <c r="AP259" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="280" spans="32:32">
-      <c r="AF280" t="s">
+    <row r="260" spans="42:42">
+      <c r="AP260" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="281" spans="32:32">
-      <c r="AF281" t="s">
+    <row r="261" spans="42:42">
+      <c r="AP261" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="282" spans="32:32">
-      <c r="AF282" t="s">
+    <row r="262" spans="42:42">
+      <c r="AP262" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="283" spans="32:32">
-      <c r="AF283" t="s">
+    <row r="263" spans="42:42">
+      <c r="AP263" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="284" spans="32:32">
-      <c r="AF284" t="s">
+    <row r="264" spans="42:42">
+      <c r="AP264" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="285" spans="32:32">
-      <c r="AF285" t="s">
+    <row r="265" spans="42:42">
+      <c r="AP265" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="286" spans="32:32">
-      <c r="AF286" t="s">
+    <row r="266" spans="42:42">
+      <c r="AP266" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="287" spans="32:32">
-      <c r="AF287" t="s">
+    <row r="267" spans="42:42">
+      <c r="AP267" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="288" spans="32:32">
-      <c r="AF288" t="s">
+    <row r="268" spans="42:42">
+      <c r="AP268" t="s">
         <v>656</v>
+      </c>
+    </row>
+    <row r="269" spans="42:42">
+      <c r="AP269" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="270" spans="42:42">
+      <c r="AP270" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="271" spans="42:42">
+      <c r="AP271" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="272" spans="42:42">
+      <c r="AP272" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="273" spans="42:42">
+      <c r="AP273" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="274" spans="42:42">
+      <c r="AP274" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="275" spans="42:42">
+      <c r="AP275" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="276" spans="42:42">
+      <c r="AP276" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="277" spans="42:42">
+      <c r="AP277" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="278" spans="42:42">
+      <c r="AP278" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="279" spans="42:42">
+      <c r="AP279" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="280" spans="42:42">
+      <c r="AP280" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="281" spans="42:42">
+      <c r="AP281" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="282" spans="42:42">
+      <c r="AP282" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="283" spans="42:42">
+      <c r="AP283" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="284" spans="42:42">
+      <c r="AP284" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="285" spans="42:42">
+      <c r="AP285" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="286" spans="42:42">
+      <c r="AP286" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="287" spans="42:42">
+      <c r="AP287" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="288" spans="42:42">
+      <c r="AP288" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="289" spans="42:42">
+      <c r="AP289" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -22,7 +22,7 @@
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="851">
   <si>
     <t>alias</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -3128,7 +3131,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3172,7 +3175,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3202,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3911,6 +3914,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3935,27 +3943,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3978,122 +3986,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4120,540 +4128,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -4703,328 +4711,328 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AT1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AZ1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="BD1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AT2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AZ2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BD2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AT3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AZ3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BD3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AT4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AZ4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BD4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AT5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AZ5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BD5" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="E6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AT6" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ6" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BD6" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="E7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BD7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ8" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BD8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BD9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BD10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="E11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP11" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT11" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ11" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD11" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="E12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP12" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AT12" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ12" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD12" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP13" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AT13" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ13" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD13" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="E14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AT14" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ14" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="E15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AT15" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ15" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD15" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="E16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AT16" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ16" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5032,1526 +5040,1526 @@
     </row>
     <row r="17" spans="5:56">
       <c r="E17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP17" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AT17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ17" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BD17" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="5:56">
       <c r="E18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AT18" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ18" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="5:56">
       <c r="E19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP19" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AT19" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ19" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="5:56">
       <c r="E20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP20" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AT20" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ20" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="5:56">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AZ21" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="5:56">
       <c r="E22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AT22" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AZ22" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="5:56">
       <c r="E23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AZ23" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="5:56">
       <c r="E24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ24" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="5:56">
       <c r="E25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AZ25" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="5:56">
       <c r="E26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP26" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ26" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="5:56">
       <c r="E27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ27" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="28" spans="5:56">
       <c r="E28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AZ28" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29" spans="5:56">
       <c r="E29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AZ29" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="5:56">
       <c r="E30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AZ30" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="5:56">
       <c r="AP31" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AZ31" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="5:56">
       <c r="AP32" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AZ32" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="42:52">
       <c r="AP33" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AZ33" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="34" spans="42:52">
       <c r="AP34" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AZ34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="42:52">
       <c r="AP35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AZ35" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="36" spans="42:52">
       <c r="AP36" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AZ36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="37" spans="42:52">
       <c r="AP37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AZ37" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="38" spans="42:52">
       <c r="AP38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AZ38" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="42:52">
       <c r="AP39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AZ39" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="42:52">
       <c r="AP40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AZ40" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="41" spans="42:52">
       <c r="AP41" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AZ41" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="42" spans="42:52">
       <c r="AP42" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AZ42" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="43" spans="42:52">
       <c r="AP43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AZ43" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="44" spans="42:52">
       <c r="AP44" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AZ44" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="45" spans="42:52">
       <c r="AP45" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AZ45" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="46" spans="42:52">
       <c r="AP46" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AZ46" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="47" spans="42:52">
       <c r="AP47" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AZ47" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="48" spans="42:52">
       <c r="AP48" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AZ48" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -22,7 +22,7 @@
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="852">
   <si>
     <t>alias</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -3131,7 +3134,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3175,7 +3178,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3202,7 +3205,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3919,6 +3922,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3943,27 +3951,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3986,122 +3994,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4128,540 +4136,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -4711,328 +4719,328 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AP1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AT1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AZ1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="BD1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AT2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AZ2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BD2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AT3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AZ3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BD3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AT4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AZ4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BD4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AT5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ5" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BD5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT6" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BD6" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BD7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AP8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT8" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BD8" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT9" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BD9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AT11" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD11" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="E12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP12" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AT12" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ12" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD12" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP13" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AT13" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ13" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD13" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AT14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ14" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AT15" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ15" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD15" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AT16" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ16" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5040,1526 +5048,1526 @@
     </row>
     <row r="17" spans="5:56">
       <c r="E17" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AT17" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ17" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BD17" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="5:56">
       <c r="E18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AT18" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ18" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="5:56">
       <c r="E19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AT19" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ19" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="5:56">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT20" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AZ20" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21" spans="5:56">
       <c r="E21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP21" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AT21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AZ21" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="5:56">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AT22" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AZ22" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="5:56">
       <c r="E23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AZ23" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" spans="5:56">
       <c r="E24" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AZ24" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="5:56">
       <c r="E25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP25" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ25" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="5:56">
       <c r="E26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ26" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="27" spans="5:56">
       <c r="E27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP27" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AZ27" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="5:56">
       <c r="E28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AZ28" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="5:56">
       <c r="E29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP29" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AZ29" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="30" spans="5:56">
       <c r="E30" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AZ30" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="31" spans="5:56">
       <c r="AP31" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AZ31" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="5:56">
       <c r="AP32" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AZ32" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="33" spans="42:52">
       <c r="AP33" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AZ33" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="34" spans="42:52">
       <c r="AP34" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AZ34" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="42:52">
       <c r="AP35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AZ35" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="42:52">
       <c r="AP36" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AZ36" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="42:52">
       <c r="AP37" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AZ37" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="42:52">
       <c r="AP38" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AZ38" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="39" spans="42:52">
       <c r="AP39" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AZ39" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="40" spans="42:52">
       <c r="AP40" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AZ40" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="41" spans="42:52">
       <c r="AP41" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AZ41" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="42" spans="42:52">
       <c r="AP42" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AZ42" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="43" spans="42:52">
       <c r="AP43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AZ43" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="44" spans="42:52">
       <c r="AP44" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AZ44" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="45" spans="42:52">
       <c r="AP45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AZ45" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="46" spans="42:52">
       <c r="AP46" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AZ46" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="47" spans="42:52">
       <c r="AP47" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AZ47" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="48" spans="42:52">
       <c r="AP48" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AZ48" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -22,7 +22,7 @@
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="853">
   <si>
     <t>alias</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -3134,7 +3137,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3178,7 +3181,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3205,7 +3208,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3927,6 +3930,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3951,27 +3959,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3994,122 +4002,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4136,540 +4144,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -4719,328 +4727,328 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AP1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AT1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AZ1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BD1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AT2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AZ2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BD2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AT3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AZ3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BD3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AT4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BD4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT5" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ5" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BD5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="E6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT6" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ6" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BD6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BD7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="E8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BD8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="E9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="E10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AT10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AT11" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ11" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD11" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AT12" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ12" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD12" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="E13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP13" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AT13" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ13" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD13" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="E14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AT14" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ14" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="E15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AT15" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ15" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BD15" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="E16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AT16" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ16" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5048,1526 +5056,1526 @@
     </row>
     <row r="17" spans="5:56">
       <c r="E17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP17" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AT17" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ17" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BD17" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="5:56">
       <c r="E18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AT18" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ18" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="5:56">
       <c r="E19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT19" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AZ19" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20" spans="5:56">
       <c r="E20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP20" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AT20" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AZ20" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="5:56">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP21" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AT21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AZ21" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="5:56">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AT22" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AZ22" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="5:56">
       <c r="E23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP23" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AZ23" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="5:56">
       <c r="E24" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP24" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ24" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="5:56">
       <c r="E25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ25" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="5:56">
       <c r="E26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP26" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AZ26" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="27" spans="5:56">
       <c r="E27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AZ27" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="5:56">
       <c r="E28" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AZ28" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="5:56">
       <c r="E29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP29" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AZ29" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="30" spans="5:56">
       <c r="E30" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AZ30" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="31" spans="5:56">
       <c r="AP31" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AZ31" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="32" spans="5:56">
       <c r="AP32" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AZ32" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="42:52">
       <c r="AP33" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AZ33" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="34" spans="42:52">
       <c r="AP34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AZ34" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="42:52">
       <c r="AP35" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AZ35" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="42:52">
       <c r="AP36" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AZ36" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="42:52">
       <c r="AP37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AZ37" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="38" spans="42:52">
       <c r="AP38" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AZ38" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="39" spans="42:52">
       <c r="AP39" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AZ39" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="40" spans="42:52">
       <c r="AP40" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AZ40" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="41" spans="42:52">
       <c r="AP41" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AZ41" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="42:52">
       <c r="AP42" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AZ42" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="42:52">
       <c r="AP43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AZ43" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="44" spans="42:52">
       <c r="AP44" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AZ44" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="42:52">
       <c r="AP45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AZ45" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="46" spans="42:52">
       <c r="AP46" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AZ46" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="42:52">
       <c r="AP47" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AZ47" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="48" spans="42:52">
       <c r="AP48" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AZ48" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -22,7 +22,7 @@
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="854">
   <si>
     <t>alias</t>
   </si>
@@ -562,6 +562,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -3137,7 +3140,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -3181,7 +3184,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3211,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3935,6 +3938,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3959,27 +3967,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4002,122 +4010,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4144,540 +4152,540 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -4727,328 +4735,328 @@
   <sheetData>
     <row r="1" spans="5:56">
       <c r="E1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Y1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AT1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AZ1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BD1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="5:56">
       <c r="E2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AT2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AZ2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BD2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="5:56">
       <c r="E3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AT3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AZ3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="BD3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="5:56">
       <c r="E4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AT4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AZ4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="BD4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="5:56">
       <c r="E5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AT5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AZ5" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="BD5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="5:56">
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AP6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AT6" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AZ6" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="BD6" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="5:56">
       <c r="E7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AP7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AT7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AZ7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="BD7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="5:56">
       <c r="E8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AT8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AZ8" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BD8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="5:56">
       <c r="E9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AP9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AT9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AZ9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="BD9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="5:56">
       <c r="E10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AT10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AZ10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="BD10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="5:56">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AP11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AT11" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AZ11" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BD11" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="5:56">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AP12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AT12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AZ12" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BD12" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="5:56">
       <c r="E13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP13" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AT13" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AZ13" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BD13" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="5:56">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AP14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AT14" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AZ14" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BD14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="5:56">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AT15" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AZ15" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="BD15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="5:56">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AT16" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AZ16" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5056,1526 +5064,1526 @@
     </row>
     <row r="17" spans="5:56">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AP17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AT17" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AZ17" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BD17" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="5:56">
       <c r="E18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AT18" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AZ18" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="5:56">
       <c r="E19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AT19" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="AZ19" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="5:56">
       <c r="E20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AP20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AT20" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AZ20" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="5:56">
       <c r="E21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AT21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AZ21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="5:56">
       <c r="E22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AT22" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AZ22" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="5:56">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AP23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AZ23" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="5:56">
       <c r="E24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AP24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AZ24" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="5:56">
       <c r="E25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AZ25" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="5:56">
       <c r="E26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AZ26" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="5:56">
       <c r="E27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP27" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AZ27" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="5:56">
       <c r="E28" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AZ28" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="5:56">
       <c r="E29" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AP29" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AZ29" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="5:56">
       <c r="E30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AP30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AZ30" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="5:56">
       <c r="AP31" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AZ31" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="5:56">
       <c r="AP32" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AZ32" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="42:52">
       <c r="AP33" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AZ33" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="42:52">
       <c r="AP34" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AZ34" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="42:52">
       <c r="AP35" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AZ35" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="42:52">
       <c r="AP36" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AZ36" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="42:52">
       <c r="AP37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AZ37" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="42:52">
       <c r="AP38" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AZ38" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="42:52">
       <c r="AP39" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AZ39" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="42:52">
       <c r="AP40" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AZ40" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" spans="42:52">
       <c r="AP41" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AZ41" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="42:52">
       <c r="AP42" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AZ42" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="42:52">
       <c r="AP43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AZ43" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="42:52">
       <c r="AP44" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AZ44" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="42:52">
       <c r="AP45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AZ45" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="42:52">
       <c r="AP46" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AZ46" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="42:52">
       <c r="AP47" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AZ47" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="48" spans="42:52">
       <c r="AP48" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AZ48" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="42:42">
       <c r="AP49" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="42:42">
       <c r="AP50" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="42:42">
       <c r="AP51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="42:42">
       <c r="AP52" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="42:42">
       <c r="AP53" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="42:42">
       <c r="AP54" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="42:42">
       <c r="AP55" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="42:42">
       <c r="AP56" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="57" spans="42:42">
       <c r="AP57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="42:42">
       <c r="AP58" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="42:42">
       <c r="AP59" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="42:42">
       <c r="AP60" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="61" spans="42:42">
       <c r="AP61" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="62" spans="42:42">
       <c r="AP62" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" spans="42:42">
       <c r="AP63" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="42:42">
       <c r="AP64" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="42:42">
       <c r="AP65" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="42:42">
       <c r="AP66" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67" spans="42:42">
       <c r="AP67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="68" spans="42:42">
       <c r="AP68" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="69" spans="42:42">
       <c r="AP69" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="42:42">
       <c r="AP70" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="42:42">
       <c r="AP71" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="42:42">
       <c r="AP72" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="42:42">
       <c r="AP73" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="42:42">
       <c r="AP74" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="42:42">
       <c r="AP75" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="42:42">
       <c r="AP76" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77" spans="42:42">
       <c r="AP77" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="78" spans="42:42">
       <c r="AP78" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="42:42">
       <c r="AP79" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="42:42">
       <c r="AP80" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="42:42">
       <c r="AP81" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="42:42">
       <c r="AP82" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="42:42">
       <c r="AP83" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="42:42">
       <c r="AP84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="42:42">
       <c r="AP85" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="42:42">
       <c r="AP86" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="42:42">
       <c r="AP87" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="42:42">
       <c r="AP88" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="42:42">
       <c r="AP89" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="42:42">
       <c r="AP90" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="42:42">
       <c r="AP91" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="92" spans="42:42">
       <c r="AP92" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="42:42">
       <c r="AP93" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="94" spans="42:42">
       <c r="AP94" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="42:42">
       <c r="AP95" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="42:42">
       <c r="AP96" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="42:42">
       <c r="AP97" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="42:42">
       <c r="AP98" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="42:42">
       <c r="AP99" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="42:42">
       <c r="AP100" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="42:42">
       <c r="AP101" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="42:42">
       <c r="AP102" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="42:42">
       <c r="AP103" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="42:42">
       <c r="AP104" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="42:42">
       <c r="AP105" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="42:42">
       <c r="AP106" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="42:42">
       <c r="AP107" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="42:42">
       <c r="AP108" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="42:42">
       <c r="AP109" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="42:42">
       <c r="AP110" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="42:42">
       <c r="AP111" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="112" spans="42:42">
       <c r="AP112" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="113" spans="42:42">
       <c r="AP113" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="114" spans="42:42">
       <c r="AP114" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="115" spans="42:42">
       <c r="AP115" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="42:42">
       <c r="AP116" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="117" spans="42:42">
       <c r="AP117" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="42:42">
       <c r="AP118" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="42:42">
       <c r="AP119" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="120" spans="42:42">
       <c r="AP120" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="42:42">
       <c r="AP121" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="42:42">
       <c r="AP122" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="123" spans="42:42">
       <c r="AP123" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="124" spans="42:42">
       <c r="AP124" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="42:42">
       <c r="AP125" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="126" spans="42:42">
       <c r="AP126" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="127" spans="42:42">
       <c r="AP127" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="42:42">
       <c r="AP128" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="42:42">
       <c r="AP129" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="130" spans="42:42">
       <c r="AP130" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="131" spans="42:42">
       <c r="AP131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="132" spans="42:42">
       <c r="AP132" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="42:42">
       <c r="AP133" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="42:42">
       <c r="AP134" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="135" spans="42:42">
       <c r="AP135" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="42:42">
       <c r="AP136" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="42:42">
       <c r="AP137" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="42:42">
       <c r="AP138" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="139" spans="42:42">
       <c r="AP139" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="140" spans="42:42">
       <c r="AP140" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="141" spans="42:42">
       <c r="AP141" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="142" spans="42:42">
       <c r="AP142" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="143" spans="42:42">
       <c r="AP143" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="144" spans="42:42">
       <c r="AP144" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="145" spans="42:42">
       <c r="AP145" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="146" spans="42:42">
       <c r="AP146" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="147" spans="42:42">
       <c r="AP147" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="42:42">
       <c r="AP148" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" spans="42:42">
       <c r="AP149" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="150" spans="42:42">
       <c r="AP150" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="42:42">
       <c r="AP151" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="42:42">
       <c r="AP152" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="153" spans="42:42">
       <c r="AP153" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="42:42">
       <c r="AP154" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="42:42">
       <c r="AP155" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="42:42">
       <c r="AP156" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="42:42">
       <c r="AP157" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="158" spans="42:42">
       <c r="AP158" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="42:42">
       <c r="AP159" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="42:42">
       <c r="AP160" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="161" spans="42:42">
       <c r="AP161" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="42:42">
       <c r="AP162" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="163" spans="42:42">
       <c r="AP163" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="164" spans="42:42">
       <c r="AP164" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="165" spans="42:42">
       <c r="AP165" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="42:42">
       <c r="AP166" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="167" spans="42:42">
       <c r="AP167" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="168" spans="42:42">
       <c r="AP168" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="169" spans="42:42">
       <c r="AP169" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="170" spans="42:42">
       <c r="AP170" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="171" spans="42:42">
       <c r="AP171" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="172" spans="42:42">
       <c r="AP172" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="42:42">
       <c r="AP173" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="174" spans="42:42">
       <c r="AP174" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="42:42">
       <c r="AP175" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="176" spans="42:42">
       <c r="AP176" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="177" spans="42:42">
       <c r="AP177" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="42:42">
       <c r="AP178" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="179" spans="42:42">
       <c r="AP179" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="42:42">
       <c r="AP180" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="181" spans="42:42">
       <c r="AP181" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="42:42">
       <c r="AP182" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" spans="42:42">
       <c r="AP183" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="184" spans="42:42">
       <c r="AP184" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="185" spans="42:42">
       <c r="AP185" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="186" spans="42:42">
       <c r="AP186" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="42:42">
       <c r="AP187" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="188" spans="42:42">
       <c r="AP188" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="189" spans="42:42">
       <c r="AP189" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="42:42">
       <c r="AP190" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" spans="42:42">
       <c r="AP191" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="192" spans="42:42">
       <c r="AP192" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="193" spans="42:42">
       <c r="AP193" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="194" spans="42:42">
       <c r="AP194" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="42:42">
       <c r="AP195" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="196" spans="42:42">
       <c r="AP196" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="197" spans="42:42">
       <c r="AP197" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="42:42">
       <c r="AP198" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="199" spans="42:42">
       <c r="AP199" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="200" spans="42:42">
       <c r="AP200" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="201" spans="42:42">
       <c r="AP201" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="202" spans="42:42">
       <c r="AP202" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="203" spans="42:42">
       <c r="AP203" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="204" spans="42:42">
       <c r="AP204" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="205" spans="42:42">
       <c r="AP205" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="206" spans="42:42">
       <c r="AP206" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="207" spans="42:42">
       <c r="AP207" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="208" spans="42:42">
       <c r="AP208" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="209" spans="42:42">
       <c r="AP209" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="210" spans="42:42">
       <c r="AP210" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="211" spans="42:42">
       <c r="AP211" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="212" spans="42:42">
       <c r="AP212" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="213" spans="42:42">
       <c r="AP213" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="214" spans="42:42">
       <c r="AP214" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="215" spans="42:42">
       <c r="AP215" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="216" spans="42:42">
       <c r="AP216" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="217" spans="42:42">
       <c r="AP217" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="218" spans="42:42">
       <c r="AP218" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="219" spans="42:42">
       <c r="AP219" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="42:42">
       <c r="AP220" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="221" spans="42:42">
       <c r="AP221" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="222" spans="42:42">
       <c r="AP222" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="223" spans="42:42">
       <c r="AP223" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="224" spans="42:42">
       <c r="AP224" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="225" spans="42:42">
       <c r="AP225" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="226" spans="42:42">
       <c r="AP226" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="227" spans="42:42">
       <c r="AP227" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="228" spans="42:42">
       <c r="AP228" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="229" spans="42:42">
       <c r="AP229" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="42:42">
       <c r="AP230" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="231" spans="42:42">
       <c r="AP231" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="232" spans="42:42">
       <c r="AP232" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="233" spans="42:42">
       <c r="AP233" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="42:42">
       <c r="AP234" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="235" spans="42:42">
       <c r="AP235" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="236" spans="42:42">
       <c r="AP236" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="237" spans="42:42">
       <c r="AP237" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="238" spans="42:42">
       <c r="AP238" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="239" spans="42:42">
       <c r="AP239" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="240" spans="42:42">
       <c r="AP240" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="241" spans="42:42">
       <c r="AP241" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="242" spans="42:42">
       <c r="AP242" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="243" spans="42:42">
       <c r="AP243" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="244" spans="42:42">
       <c r="AP244" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="245" spans="42:42">
       <c r="AP245" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="246" spans="42:42">
       <c r="AP246" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="247" spans="42:42">
       <c r="AP247" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="248" spans="42:42">
       <c r="AP248" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="249" spans="42:42">
       <c r="AP249" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="250" spans="42:42">
       <c r="AP250" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="251" spans="42:42">
       <c r="AP251" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="252" spans="42:42">
       <c r="AP252" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="253" spans="42:42">
       <c r="AP253" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="254" spans="42:42">
       <c r="AP254" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="255" spans="42:42">
       <c r="AP255" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="256" spans="42:42">
       <c r="AP256" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="257" spans="42:42">
       <c r="AP257" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="258" spans="42:42">
       <c r="AP258" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="259" spans="42:42">
       <c r="AP259" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="260" spans="42:42">
       <c r="AP260" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="261" spans="42:42">
       <c r="AP261" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="262" spans="42:42">
       <c r="AP262" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="263" spans="42:42">
       <c r="AP263" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="264" spans="42:42">
       <c r="AP264" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="265" spans="42:42">
       <c r="AP265" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="266" spans="42:42">
       <c r="AP266" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="267" spans="42:42">
       <c r="AP267" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="268" spans="42:42">
       <c r="AP268" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="269" spans="42:42">
       <c r="AP269" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="270" spans="42:42">
       <c r="AP270" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="271" spans="42:42">
       <c r="AP271" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="272" spans="42:42">
       <c r="AP272" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="273" spans="42:42">
       <c r="AP273" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="274" spans="42:42">
       <c r="AP274" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="275" spans="42:42">
       <c r="AP275" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="276" spans="42:42">
       <c r="AP276" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="42:42">
       <c r="AP277" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="42:42">
       <c r="AP278" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="279" spans="42:42">
       <c r="AP279" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="280" spans="42:42">
       <c r="AP280" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="281" spans="42:42">
       <c r="AP281" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="282" spans="42:42">
       <c r="AP282" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="283" spans="42:42">
       <c r="AP283" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="284" spans="42:42">
       <c r="AP284" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="285" spans="42:42">
       <c r="AP285" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="286" spans="42:42">
       <c r="AP286" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="287" spans="42:42">
       <c r="AP287" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="288" spans="42:42">
       <c r="AP288" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -18,10 +18,10 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$294</definedName>
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
-    <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
+    <definedName name="ihmcmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="859">
   <si>
     <t>alias</t>
   </si>
@@ -942,7 +942,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic level</t>
+    <t>trophic_level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -963,13 +963,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed biotic relationship</t>
+    <t>observed_biotic_relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -996,7 +996,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship to oxygen</t>
+    <t>relationship_to_oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1008,31 +1008,31 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>observed host symbionts</t>
+    <t>observed_host_symbionts</t>
   </si>
   <si>
     <t>(Optional) The taxonomic name of the organism(s) found living in mutualistic, commensalistic, or parasitic symbiosis with the specific host.</t>
   </si>
   <si>
-    <t>sample collection device</t>
+    <t>sample_collection_device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample storage temperature</t>
+    <t>sample_storage_temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample storage location</t>
+    <t>sample_storage_location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1044,7 +1044,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation status of sample</t>
+    <t>oxygenation_status_of_sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1056,13 +1056,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>medical history performed</t>
+    <t>medical_history_performed</t>
   </si>
   <si>
     <t>(Optional) Whether full medical history was collected</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1074,37 +1074,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number of replicons</t>
+    <t>number_of_replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal elements</t>
+    <t>extrachromosomal_elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated size</t>
+    <t>estimated_size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target gene</t>
+    <t>target_gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target subfragment</t>
+    <t>target_subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex identifiers</t>
+    <t>multiplex_identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1119,25 +1119,25 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence quality check</t>
+    <t>sequence_quality_check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera check software</t>
+    <t>chimera_check_software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant electronic resources</t>
+    <t>relevant_electronic_resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant standard operating procedures</t>
+    <t>relevant_standard_operating_procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
@@ -1149,7 +1149,7 @@
     <t>(Optional) Geographical coordinates of the location where the specimen was collected</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1161,37 +1161,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broad-scale environmental context</t>
+    <t>broadscale_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local environmental context</t>
+    <t>local_environmental_context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental medium</t>
+    <t>environmental_medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1203,19 +1203,19 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>organism count</t>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+  </si>
+  <si>
+    <t>organism_count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample storage duration</t>
+    <t>sample_storage_duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1434,9 +1434,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1455,6 +1452,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1656,6 +1656,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1665,9 +1668,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1776,6 +1776,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1851,6 +1854,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1872,6 +1878,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1917,6 +1926,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1929,6 +1941,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1938,9 +1953,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1965,6 +1977,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2025,12 +2040,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2088,25 +2103,25 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>nose/mouth/teeth/throat disorder</t>
+    <t>nosemouthteeththroat_disorder</t>
   </si>
   <si>
     <t>(Optional) History of nose/mouth/teeth/throat disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, nose disease (https://disease-ontology.org/?id=doid:2825), mouth disease (https://disease-ontology.org/?id=doid:403), tooth disease (https://disease-ontology.org/?id=doid:1091), or upper respiratory tract disease (https://disease-ontology.org/?id=doid:974).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
@@ -2178,31 +2193,31 @@
     <t>99=99=Other</t>
   </si>
   <si>
-    <t>IHMC medication code</t>
+    <t>ihmc_medication_code</t>
   </si>
   <si>
     <t>(Optional) Can include multiple medication codes</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host body site</t>
+    <t>host_body_site</t>
   </si>
   <si>
     <t>(Optional) Name of body site where the sample was obtained from, such as a specific organ or tissue (tongue, lung etc...). for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
   </si>
   <si>
-    <t>host height</t>
-  </si>
-  <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
-  </si>
-  <si>
-    <t>host body-mass index</t>
+    <t>host_height</t>
+  </si>
+  <si>
+    <t>(Optional) The height of subject (Units: m)</t>
+  </si>
+  <si>
+    <t>host_bodymass_index</t>
   </si>
   <si>
     <t>(Optional) Body mass index, calculated as weight/(height)squared (Units: kg/m2)</t>
@@ -2358,25 +2373,25 @@
     <t>99=99 Unknown/Refused</t>
   </si>
   <si>
-    <t>host occupation</t>
+    <t>host_occupation</t>
   </si>
   <si>
     <t>(Optional) Most frequent job performed by subject</t>
   </si>
   <si>
-    <t>host total mass</t>
+    <t>host_total_mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host phenotype</t>
+    <t>host_phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of host. for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>host body temperature</t>
+    <t>host_body_temperature</t>
   </si>
   <si>
     <t>(Optional) Core body temperature of the host when sample was collected (Units: ºC)</t>
@@ -2394,13 +2409,13 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -2418,49 +2433,49 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>source material identifiers</t>
+    <t>source_material_identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>time since last toothbrushing</t>
+    <t>time_since_last_toothbrushing</t>
   </si>
   <si>
     <t>(Optional) Specification of the time since last toothbrushing (Units: minutes)</t>
   </si>
   <si>
-    <t>host diet</t>
+    <t>host_diet</t>
   </si>
   <si>
     <t>(Optional) Type of diet depending on the host, for animals omnivore, herbivore etc., for humans high-fat, mediterranean etc.; can include multiple diet types</t>
   </si>
   <si>
-    <t>host last meal</t>
+    <t>host_last_meal</t>
   </si>
   <si>
     <t>(Optional) Content of last meal and time since feeding; can include multiple values</t>
   </si>
   <si>
-    <t>host family relationship</t>
+    <t>host_family_relationship</t>
   </si>
   <si>
     <t>(Optional) Familial relationships to other hosts in the same study; can include multiple relationships</t>
   </si>
   <si>
-    <t>host genotype</t>
+    <t>host_genotype</t>
   </si>
   <si>
     <t>(Optional) Observed genotype</t>
   </si>
   <si>
-    <t>host pulse</t>
+    <t>host_pulse</t>
   </si>
   <si>
     <t>(Optional) Resting pulse, measured as beats per minute (Units: bpm)</t>
   </si>
   <si>
-    <t>host body product</t>
+    <t>host_body_product</t>
   </si>
   <si>
     <t>(Optional) Substance produced by the body, e.g. stool, mucus, where the sample was obtained from. for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
@@ -2472,121 +2487,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative control type</t>
+    <t>negative_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive control type</t>
+    <t>positive_control_type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental factor</t>
+    <t>experimental_factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded traits</t>
+    <t>encoded_traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific genetic lineage</t>
+    <t>subspecific_genetic_lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic classification</t>
+    <t>taxonomic_classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation and growth condition</t>
+    <t>isolation_and_growth_condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation source</t>
+    <t>annotation_source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference for biomaterial</t>
+    <t>reference_for_biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample material processing</t>
+    <t>sample_material_processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample volume or weight for DNA extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
-  </si>
-  <si>
-    <t>nucleic acid extraction</t>
+    <t>sample_volume_or_weight_for_dna_extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
+  </si>
+  <si>
+    <t>nucleic_acid_extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic acid amplification</t>
+    <t>nucleic_acid_amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library size</t>
+    <t>library_size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library reads sequenced</t>
+    <t>library_reads_sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library construction method</t>
+    <t>library_construction_method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library vector</t>
+    <t>library_vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library screening strategy</t>
+    <t>library_screening_strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr conditions</t>
+    <t>pcr_conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr primers</t>
+    <t>pcr_primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2598,7 +2613,7 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>chemical administration</t>
+    <t>chemical_administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4269,151 +4284,151 @@
         <v>391</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
@@ -4541,151 +4556,151 @@
         <v>392</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -4712,7 +4727,7 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
-      <formula1>IHMCmedicationcode</formula1>
+      <formula1>ihmcmedicationcode</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
       <formula1>hostoccupation</formula1>
@@ -4727,7 +4742,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD289"/>
+  <dimension ref="E1:BD294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4756,13 +4771,13 @@
         <v>393</v>
       </c>
       <c r="AT1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AZ1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BD1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="5:56">
@@ -4788,13 +4803,13 @@
         <v>394</v>
       </c>
       <c r="AT2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AZ2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BD2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="5:56">
@@ -4814,13 +4829,13 @@
         <v>395</v>
       </c>
       <c r="AT3" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AZ3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BD3" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="5:56">
@@ -4837,13 +4852,13 @@
         <v>396</v>
       </c>
       <c r="AT4" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AZ4" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BD4" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="5:56">
@@ -4860,13 +4875,13 @@
         <v>397</v>
       </c>
       <c r="AT5" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AZ5" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BD5" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="5:56">
@@ -4880,13 +4895,13 @@
         <v>398</v>
       </c>
       <c r="AT6" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AZ6" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BD6" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="5:56">
@@ -4900,13 +4915,13 @@
         <v>399</v>
       </c>
       <c r="AT7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AZ7" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BD7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="5:56">
@@ -4917,13 +4932,13 @@
         <v>400</v>
       </c>
       <c r="AT8" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AZ8" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BD8" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="5:56">
@@ -4934,13 +4949,13 @@
         <v>401</v>
       </c>
       <c r="AT9" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AZ9" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BD9" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="5:56">
@@ -4951,13 +4966,13 @@
         <v>402</v>
       </c>
       <c r="AT10" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AZ10" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BD10" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="5:56">
@@ -4968,13 +4983,13 @@
         <v>403</v>
       </c>
       <c r="AT11" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AZ11" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BD11" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="5:56">
@@ -4985,13 +5000,13 @@
         <v>404</v>
       </c>
       <c r="AT12" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AZ12" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BD12" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="13" spans="5:56">
@@ -5002,13 +5017,13 @@
         <v>405</v>
       </c>
       <c r="AT13" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AZ13" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BD13" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="5:56">
@@ -5019,13 +5034,13 @@
         <v>406</v>
       </c>
       <c r="AT14" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AZ14" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BD14" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="5:56">
@@ -5036,13 +5051,13 @@
         <v>407</v>
       </c>
       <c r="AT15" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AZ15" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BD15" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" spans="5:56">
@@ -5053,10 +5068,10 @@
         <v>408</v>
       </c>
       <c r="AT16" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AZ16" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5070,13 +5085,13 @@
         <v>409</v>
       </c>
       <c r="AT17" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AZ17" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BD17" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="5:56">
@@ -5087,10 +5102,10 @@
         <v>410</v>
       </c>
       <c r="AT18" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AZ18" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="5:56">
@@ -5101,10 +5116,10 @@
         <v>411</v>
       </c>
       <c r="AT19" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="AZ19" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20" spans="5:56">
@@ -5115,10 +5130,10 @@
         <v>412</v>
       </c>
       <c r="AT20" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="AZ20" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21" spans="5:56">
@@ -5129,10 +5144,10 @@
         <v>413</v>
       </c>
       <c r="AT21" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="AZ21" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22" spans="5:56">
@@ -5143,10 +5158,10 @@
         <v>414</v>
       </c>
       <c r="AT22" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="AZ22" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="5:56">
@@ -5157,7 +5172,7 @@
         <v>415</v>
       </c>
       <c r="AZ23" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="24" spans="5:56">
@@ -5168,7 +5183,7 @@
         <v>416</v>
       </c>
       <c r="AZ24" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="5:56">
@@ -5179,7 +5194,7 @@
         <v>417</v>
       </c>
       <c r="AZ25" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="26" spans="5:56">
@@ -5190,7 +5205,7 @@
         <v>418</v>
       </c>
       <c r="AZ26" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="5:56">
@@ -5201,7 +5216,7 @@
         <v>419</v>
       </c>
       <c r="AZ27" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28" spans="5:56">
@@ -5212,7 +5227,7 @@
         <v>420</v>
       </c>
       <c r="AZ28" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29" spans="5:56">
@@ -5223,7 +5238,7 @@
         <v>421</v>
       </c>
       <c r="AZ29" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="5:56">
@@ -5234,7 +5249,7 @@
         <v>422</v>
       </c>
       <c r="AZ30" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="5:56">
@@ -5242,7 +5257,7 @@
         <v>423</v>
       </c>
       <c r="AZ31" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="32" spans="5:56">
@@ -5250,7 +5265,7 @@
         <v>424</v>
       </c>
       <c r="AZ32" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="33" spans="42:52">
@@ -5258,7 +5273,7 @@
         <v>425</v>
       </c>
       <c r="AZ33" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34" spans="42:52">
@@ -5266,7 +5281,7 @@
         <v>426</v>
       </c>
       <c r="AZ34" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="42:52">
@@ -5274,7 +5289,7 @@
         <v>427</v>
       </c>
       <c r="AZ35" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="36" spans="42:52">
@@ -5282,7 +5297,7 @@
         <v>428</v>
       </c>
       <c r="AZ36" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="42:52">
@@ -5290,7 +5305,7 @@
         <v>429</v>
       </c>
       <c r="AZ37" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="38" spans="42:52">
@@ -5298,7 +5313,7 @@
         <v>430</v>
       </c>
       <c r="AZ38" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="42:52">
@@ -5306,7 +5321,7 @@
         <v>431</v>
       </c>
       <c r="AZ39" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="40" spans="42:52">
@@ -5314,7 +5329,7 @@
         <v>432</v>
       </c>
       <c r="AZ40" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" spans="42:52">
@@ -5322,7 +5337,7 @@
         <v>433</v>
       </c>
       <c r="AZ41" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="42" spans="42:52">
@@ -5330,7 +5345,7 @@
         <v>434</v>
       </c>
       <c r="AZ42" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="43" spans="42:52">
@@ -5338,7 +5353,7 @@
         <v>435</v>
       </c>
       <c r="AZ43" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="42:52">
@@ -5346,7 +5361,7 @@
         <v>436</v>
       </c>
       <c r="AZ44" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="45" spans="42:52">
@@ -5354,7 +5369,7 @@
         <v>437</v>
       </c>
       <c r="AZ45" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="46" spans="42:52">
@@ -5362,7 +5377,7 @@
         <v>438</v>
       </c>
       <c r="AZ46" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="47" spans="42:52">
@@ -5370,7 +5385,7 @@
         <v>439</v>
       </c>
       <c r="AZ47" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="48" spans="42:52">
@@ -5378,7 +5393,7 @@
         <v>440</v>
       </c>
       <c r="AZ48" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="42:42">
@@ -6584,6 +6599,31 @@
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
         <v>681</v>
+      </c>
+    </row>
+    <row r="290" spans="42:42">
+      <c r="AP290" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="291" spans="42:42">
+      <c r="AP291" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="292" spans="42:42">
+      <c r="AP292" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="293" spans="42:42">
+      <c r="AP293" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="294" spans="42:42">
+      <c r="AP294" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -18,10 +18,10 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
     <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
-    <definedName name="ihmcmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
+    <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="854">
   <si>
     <t>alias</t>
   </si>
@@ -942,7 +942,7 @@
     <t>phototroph</t>
   </si>
   <si>
-    <t>trophic_level</t>
+    <t>trophic level</t>
   </si>
   <si>
     <t>(Optional) Trophic levels are the feeding position in a food chain. microbes can be a range of producers (e.g. chemolithotroph)</t>
@@ -963,13 +963,13 @@
     <t>symbiont</t>
   </si>
   <si>
-    <t>observed_biotic_relationship</t>
+    <t>observed biotic relationship</t>
   </si>
   <si>
     <t>(Optional) Description of relationship(s) between the subject organism and other organism(s) it is associated with. e.g., parasite on species x; mutualist with species y. the target organism is the subject of the relationship, and the other organism(s) is the object.</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Optional) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
@@ -996,7 +996,7 @@
     <t>obligate anaerobe</t>
   </si>
   <si>
-    <t>relationship_to_oxygen</t>
+    <t>relationship to oxygen</t>
   </si>
   <si>
     <t>(Optional) Is this organism an aerobe, anaerobe? please note that aerobic and anaerobic are valid descriptors for microbial environments</t>
@@ -1008,31 +1008,31 @@
     <t>(Optional) The type of reproduction from the parent stock. values for this field is specific to different taxa. for phage or virus: lytic/lysogenic/temperate/obligately lytic. for plasmids: incompatibility group. for eukaryotes: sexual/asexual. mandatory for migs of eukayotes, plasmids and viruses.</t>
   </si>
   <si>
-    <t>observed_host_symbionts</t>
+    <t>observed host symbionts</t>
   </si>
   <si>
     <t>(Optional) The taxonomic name of the organism(s) found living in mutualistic, commensalistic, or parasitic symbiosis with the specific host.</t>
   </si>
   <si>
-    <t>sample_collection_device</t>
+    <t>sample collection device</t>
   </si>
   <si>
     <t>(Optional) The device used to collect an environmental sample. it is recommended to use terms listed under environmental sampling device (http://purl.obolibrary.org/obo/envo) and/or terms listed under specimen collection device (http://purl.obolibrary.org/obo/genepio_0002094).</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_storage_temperature</t>
+    <t>sample storage temperature</t>
   </si>
   <si>
     <t>(Optional) Temperature at which sample was stored, e.g. -80 (Units: °C)</t>
   </si>
   <si>
-    <t>sample_storage_location</t>
+    <t>sample storage location</t>
   </si>
   <si>
     <t>(Optional) Location at which sample was stored, usually name of a specific freezer/room. indicate the location name.</t>
@@ -1044,7 +1044,7 @@
     <t>anaerobic</t>
   </si>
   <si>
-    <t>oxygenation_status_of_sample</t>
+    <t>oxygenation status of sample</t>
   </si>
   <si>
     <t>(Optional) Oxygenation status of sample</t>
@@ -1056,13 +1056,13 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>medical_history_performed</t>
+    <t>medical history performed</t>
   </si>
   <si>
     <t>(Optional) Whether full medical history was collected</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
@@ -1074,37 +1074,37 @@
     <t>(Optional) The ploidy level of the genome (e.g. allopolyploid, haploid, diploid, triploid, tetraploid). it has implications for the downstream study of duplicated gene and regions of the genomes (and perhaps for difficulties in assembly). for terms, please select terms listed under class ploidy (pato:001374) of phenotypic quality ontology (pato), and for a browser of pato (v 2018-03-27) please refer to http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>number_of_replicons</t>
+    <t>number of replicons</t>
   </si>
   <si>
     <t>(Optional) Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. always applied to the haploid chromosome count of a eukaryote. mandatory for migs of eukaryotes, bacteria, archaea and segmented virus.</t>
   </si>
   <si>
-    <t>extrachromosomal_elements</t>
+    <t>extrachromosomal elements</t>
   </si>
   <si>
     <t>(Optional) Do plasmids exist of significant phenotypic consequence (e.g. ones that determine virulence or antibiotic resistance). megaplasmids? other plasmids (borrelia has 15+ plasmids).</t>
   </si>
   <si>
-    <t>estimated_size</t>
+    <t>estimated size</t>
   </si>
   <si>
     <t>(Optional) The estimated size of the genome (in bp) prior to sequencing. of particular importance in the sequencing of (eukaryotic) genome which could remain in draft form for a long or unspecified period. mandatory for migs of eukaryotes.</t>
   </si>
   <si>
-    <t>target_gene</t>
+    <t>target gene</t>
   </si>
   <si>
     <t>(Optional) Targeted gene or locus name for marker gene studies</t>
   </si>
   <si>
-    <t>target_subfragment</t>
+    <t>target subfragment</t>
   </si>
   <si>
     <t>(Optional) Name of subfragment of a gene or locus. important to e.g. identify special regions on marker genes like v6 on 16s rrna</t>
   </si>
   <si>
-    <t>multiplex_identifiers</t>
+    <t>multiplex identifiers</t>
   </si>
   <si>
     <t>(Optional) Molecular barcodes, called multiplex identifiers (mids), that are used to specifically tag unique samples in a sequencing run. sequence should be reported in uppercase letters</t>
@@ -1119,25 +1119,25 @@
     <t>software</t>
   </si>
   <si>
-    <t>sequence_quality_check</t>
+    <t>sequence quality check</t>
   </si>
   <si>
     <t>(Optional) Indicate if the sequence has been called by automatic systems (none) or undergone a manual editing procedure (e.g. by inspecting the raw data or chromatograms). applied only for sequences that are not submitted to sra or dra</t>
   </si>
   <si>
-    <t>chimera_check_software</t>
+    <t>chimera check software</t>
   </si>
   <si>
     <t>(Optional) Tool(s) used for chimera checking, including version number and parameters, to discover and remove chimeric sequences. a chimeric sequence is comprised of two or more phylogenetically distinct parent sequences.</t>
   </si>
   <si>
-    <t>relevant_electronic_resources</t>
+    <t>relevant electronic resources</t>
   </si>
   <si>
     <t>(Optional) A related resource that is referenced, cited, or otherwise associated to the sequence in the format of a pmid, doi or url</t>
   </si>
   <si>
-    <t>relevant_standard_operating_procedures</t>
+    <t>relevant standard operating procedures</t>
   </si>
   <si>
     <t>(Optional) Standard operating procedures used in assembly and/or annotation of genomes, metagenomes or environmental sequences in the format of a pmid, doi or url</t>
@@ -1149,7 +1149,7 @@
     <t>(Optional) Geographical coordinates of the location where the specimen was collected</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1161,37 +1161,37 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>broadscale_environmental_context</t>
+    <t>broad-scale environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the major environmental system the sample or specimen came from. the system(s) identified should have a coarse spatial grain, to provide the general environmental context of where the sampling was done (e.g. in the desert or a rainforest). we recommend using subclasses of envo’s biome class: http://purl.obolibrary.org/obo/envo_00000428. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>local_environmental_context</t>
+    <t>local environmental context</t>
   </si>
   <si>
     <t>(Mandatory) Report the entity or entities which are in the sample or specimen’s local vicinity and which you believe have significant causal influences on your sample or specimen. we recommend using envo terms which are of smaller spatial grain than your entry for "broad-scale environmental context". terms, such as anatomical sites, from other obo library ontologies which interoperate with envo (e.g. uberon) are accepted in this field. envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs.</t>
   </si>
   <si>
-    <t>environmental_medium</t>
+    <t>environmental medium</t>
   </si>
   <si>
     <t>(Mandatory) Report the environmental material(s) immediately surrounding the sample or specimen at the time of sampling. we recommend using subclasses of 'environmental material' (http://purl.obolibrary.org/obo/envo_00010483). envo documentation about how to use the field: https://github.com/environmentontology/envo/wiki/using-envo-with-mixs . terms from other obo ontologies are permissible as long as they reference mass/volume nouns (e.g. air, water, blood) and not discrete, countable entities (e.g. a tree, a leaf, a table top).</t>
@@ -1203,19 +1203,19 @@
     <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
-  </si>
-  <si>
-    <t>organism_count</t>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>organism count</t>
   </si>
   <si>
     <t>(Optional) Total cell count of any organism (or group of organisms) per gram, volume or area of sample, should include name of organism followed by count. the method that was used for the enumeration (e.g. qpcr, atp, mpn, etc.) should also be provided. (example: total prokaryotes; 3.5e7 cells per ml; qpcr)</t>
   </si>
   <si>
-    <t>sample_storage_duration</t>
+    <t>sample storage duration</t>
   </si>
   <si>
     <t>(Optional) Duration for which the sample was stored. indicate the duration for which the sample was stored written in iso 8601 format.</t>
@@ -1434,6 +1434,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1452,9 +1455,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1656,9 +1656,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1668,6 +1665,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1707,7 +1707,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1776,9 +1776,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1854,9 +1851,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1878,9 +1872,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1926,9 +1917,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1941,9 +1929,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1953,6 +1938,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1977,9 +1965,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2040,12 +2025,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2103,25 +2088,25 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>nosemouthteeththroat_disorder</t>
+    <t>nose/mouth/teeth/throat disorder</t>
   </si>
   <si>
     <t>(Optional) History of nose/mouth/teeth/throat disorders; can include multiple disorders. the terms should be chosen from the do (human disease ontology) at http://www.disease-ontology.org, nose disease (https://disease-ontology.org/?id=doid:2825), mouth disease (https://disease-ontology.org/?id=doid:403), tooth disease (https://disease-ontology.org/?id=doid:1091), or upper respiratory tract disease (https://disease-ontology.org/?id=doid:974).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
@@ -2193,31 +2178,31 @@
     <t>99=99=Other</t>
   </si>
   <si>
-    <t>ihmc_medication_code</t>
+    <t>IHMC medication code</t>
   </si>
   <si>
     <t>(Optional) Can include multiple medication codes</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host_body_site</t>
+    <t>host body site</t>
   </si>
   <si>
     <t>(Optional) Name of body site where the sample was obtained from, such as a specific organ or tissue (tongue, lung etc...). for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
   </si>
   <si>
-    <t>host_height</t>
-  </si>
-  <si>
-    <t>(Optional) The height of subject (Units: m)</t>
-  </si>
-  <si>
-    <t>host_bodymass_index</t>
+    <t>host height</t>
+  </si>
+  <si>
+    <t>(Optional) The height of subject (Units: mm)</t>
+  </si>
+  <si>
+    <t>host body-mass index</t>
   </si>
   <si>
     <t>(Optional) Body mass index, calculated as weight/(height)squared (Units: kg/m2)</t>
@@ -2373,25 +2358,25 @@
     <t>99=99 Unknown/Refused</t>
   </si>
   <si>
-    <t>host_occupation</t>
+    <t>host occupation</t>
   </si>
   <si>
     <t>(Optional) Most frequent job performed by subject</t>
   </si>
   <si>
-    <t>host_total_mass</t>
+    <t>host total mass</t>
   </si>
   <si>
     <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
   </si>
   <si>
-    <t>host_phenotype</t>
+    <t>host phenotype</t>
   </si>
   <si>
     <t>(Optional) Phenotype of host. for phenotypic quality ontology (pato) (v 2013-10-28) terms, please see http://purl.bioontology.org/ontology/pato</t>
   </si>
   <si>
-    <t>host_body_temperature</t>
+    <t>host body temperature</t>
   </si>
   <si>
     <t>(Optional) Core body temperature of the host when sample was collected (Units: ºC)</t>
@@ -2409,13 +2394,13 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Optional) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -2433,49 +2418,49 @@
     <t>(Optional) The total concentration of all dissolved salts in a liquid or solid sample. while salinity can be measured by a complete chemical analysis, this method is difficult and time consuming. more often, it is instead derived from the conductivity measurement. this is known as practical salinity. these derivations compare the specific conductance of the sample to a salinity standard such as seawater. (Units: psu)</t>
   </si>
   <si>
-    <t>source_material_identifiers</t>
+    <t>source material identifiers</t>
   </si>
   <si>
     <t>(Optional) A unique identifier assigned to a material sample (as defined by http://rs.tdwg.org/dwc/terms/materialsampleid, and as opposed to a particular digital record of a material sample) used for extracting nucleic acids, and subsequent sequencing. the identifier can refer either to the original material collected or to any derived sub-samples. the insdc qualifiers /specimen_voucher, /bio_material, or /culture_collection may or may not share the same value as the source_mat_id field. for instance, the /specimen_voucher qualifier and source_mat_id may both contain 'uam:herps:14' , referring to both the specimen voucher and sampled tissue with the same identifier. however, the /culture_collection qualifier may refer to a value from an initial culture (e.g. atcc:11775) while source_mat_id would refer to an identifier from some derived culture from which the nucleic acids were extracted (e.g. xatc123 or ark:/2154/r2).</t>
   </si>
   <si>
-    <t>time_since_last_toothbrushing</t>
+    <t>time since last toothbrushing</t>
   </si>
   <si>
     <t>(Optional) Specification of the time since last toothbrushing (Units: minutes)</t>
   </si>
   <si>
-    <t>host_diet</t>
+    <t>host diet</t>
   </si>
   <si>
     <t>(Optional) Type of diet depending on the host, for animals omnivore, herbivore etc., for humans high-fat, mediterranean etc.; can include multiple diet types</t>
   </si>
   <si>
-    <t>host_last_meal</t>
+    <t>host last meal</t>
   </si>
   <si>
     <t>(Optional) Content of last meal and time since feeding; can include multiple values</t>
   </si>
   <si>
-    <t>host_family_relationship</t>
+    <t>host family relationship</t>
   </si>
   <si>
     <t>(Optional) Familial relationships to other hosts in the same study; can include multiple relationships</t>
   </si>
   <si>
-    <t>host_genotype</t>
+    <t>host genotype</t>
   </si>
   <si>
     <t>(Optional) Observed genotype</t>
   </si>
   <si>
-    <t>host_pulse</t>
+    <t>host pulse</t>
   </si>
   <si>
     <t>(Optional) Resting pulse, measured as beats per minute (Units: bpm)</t>
   </si>
   <si>
-    <t>host_body_product</t>
+    <t>host body product</t>
   </si>
   <si>
     <t>(Optional) Substance produced by the body, e.g. stool, mucus, where the sample was obtained from. for foundational model of anatomy ontology (fma) (v 3.1) terms, please see http://purl.bioontology.org/ontology/fma</t>
@@ -2487,121 +2472,121 @@
     <t>(Optional) Type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
   </si>
   <si>
-    <t>negative_control_type</t>
+    <t>negative control type</t>
   </si>
   <si>
     <t>(Optional) The substance or equipment used as a negative control in an investigation</t>
   </si>
   <si>
-    <t>positive_control_type</t>
+    <t>positive control type</t>
   </si>
   <si>
     <t>(Optional) The substance, mixture, product, or apparatus used to verify that a process which is part of an investigation delivers a true positive.</t>
   </si>
   <si>
-    <t>experimental_factor</t>
+    <t>experimental factor</t>
   </si>
   <si>
     <t>(Optional) Experimental factors are essentially the variable aspects of an experiment design which can be used to describe an experiment, or set of experiments, in an increasingly detailed manner. this field accepts ontology terms from experimental factor ontology (efo) and/or ontology for biomedical investigations (obi). for a browser of efo (v 2.95) terms, please see http://purl.bioontology.org/ontology/efo; for a browser of obi (v 2018-02-12) terms please see http://purl.bioontology.org/ontology/obi. e.g. time series design [efo:efo_0001779]</t>
   </si>
   <si>
-    <t>encoded_traits</t>
+    <t>encoded traits</t>
   </si>
   <si>
     <t>(Optional) Should include key traits like antibiotic resistance or xenobiotic degradation phenotypes for plasmids, converting genes for phage</t>
   </si>
   <si>
-    <t>subspecific_genetic_lineage</t>
+    <t>subspecific genetic lineage</t>
   </si>
   <si>
     <t>(Optional) Information about the genetic distinctness of the sequenced organism below the subspecies level, e.g., serovar, serotype, biotype, ecotype, or any relevant genetic typing schemes like group i plasmid. subspecies should not be recorded in this term, but in the ncbi taxonomy. supply both the lineage name and the lineage rank separated by a colon, e.g., biovar:abc123.</t>
   </si>
   <si>
-    <t>taxonomic_classification</t>
+    <t>taxonomic classification</t>
   </si>
   <si>
     <t>(Optional) Method used for taxonomic classification, along with reference database used, classification rank, and thresholds used to classify new genomes. expected values are: classification method, database name, and other parameters e.g. vcontact vcontact2 (references from ncbi refseq v83, genus rank classification, default parameters)</t>
   </si>
   <si>
-    <t>isolation_and_growth_condition</t>
+    <t>isolation and growth condition</t>
   </si>
   <si>
     <t>(Optional) Publication reference in the form of pubmed id (pmid), digital object identifier (doi) or url for isolation and growth condition specifications of the organism/material. mandatory for migs and mimarks specimen.</t>
   </si>
   <si>
-    <t>annotation_source</t>
+    <t>annotation source</t>
   </si>
   <si>
     <t>(Optional) For cases where annotation was provided by a community jamboree or model organism database rather than by a specific submitter</t>
   </si>
   <si>
-    <t>reference_for_biomaterial</t>
+    <t>reference for biomaterial</t>
   </si>
   <si>
     <t>(Optional) Primary publication if isolated before genome publication; otherwise, primary genome report. mandatory for migs of bacteria and archaea.</t>
   </si>
   <si>
-    <t>sample_material_processing</t>
+    <t>sample material processing</t>
   </si>
   <si>
     <t>(Optional) A brief description of any processing applied to the sample during or after retrieving the sample from environment, or a link to the relevant protocol(s) performed.</t>
   </si>
   <si>
-    <t>sample_volume_or_weight_for_dna_extraction</t>
-  </si>
-  <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
-  </si>
-  <si>
-    <t>nucleic_acid_extraction</t>
+    <t>sample volume or weight for DNA extraction</t>
+  </si>
+  <si>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+  </si>
+  <si>
+    <t>nucleic acid extraction</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the material separation to recover the nucleic acid fraction from a sample</t>
   </si>
   <si>
-    <t>nucleic_acid_amplification</t>
+    <t>nucleic acid amplification</t>
   </si>
   <si>
     <t>(Optional) A link to a literature reference, electronic resource or a standard operating procedure (sop), that describes the enzymatic amplification (pcr, tma, nasba) of specific nucleic acids</t>
   </si>
   <si>
-    <t>library_size</t>
+    <t>library size</t>
   </si>
   <si>
     <t>(Optional) Total number of clones in the library prepared for the project</t>
   </si>
   <si>
-    <t>library_reads_sequenced</t>
+    <t>library reads sequenced</t>
   </si>
   <si>
     <t>(Optional) Total number of clones sequenced from the library</t>
   </si>
   <si>
-    <t>library_construction_method</t>
+    <t>library construction method</t>
   </si>
   <si>
     <t>(Optional) Library construction method used for clone libraries</t>
   </si>
   <si>
-    <t>library_vector</t>
+    <t>library vector</t>
   </si>
   <si>
     <t>(Optional) Cloning vector type(s) used in construction of libraries</t>
   </si>
   <si>
-    <t>library_screening_strategy</t>
+    <t>library screening strategy</t>
   </si>
   <si>
     <t>(Optional) Specific enrichment or screening methods applied before and/or after creating clone libraries in order to select a specific group of sequences</t>
   </si>
   <si>
-    <t>pcr_conditions</t>
+    <t>pcr conditions</t>
   </si>
   <si>
     <t>(Optional) Description of reaction conditions and components for pcr in the form of 'initial denaturation:94degc_1.5min; annealing=...'</t>
   </si>
   <si>
-    <t>pcr_primers</t>
+    <t>pcr primers</t>
   </si>
   <si>
     <t>(Optional) Pcr primers that were used to amplify the sequence of the targeted gene, locus or subfragment. this field should contain all the primers used for a single pcr reaction if multiple forward or reverse primers are present in a single pcr reaction. the primer sequence should be reported in uppercase letters</t>
@@ -2613,7 +2598,7 @@
     <t>(Optional) Adapters provide priming sequences for both amplification and sequencing of the sample-library fragments. both adapters should be reported; in uppercase letters</t>
   </si>
   <si>
-    <t>chemical_administration</t>
+    <t>chemical administration</t>
   </si>
   <si>
     <t>(Optional) List of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, n fertilizer, air filter); can include multiple compounds. for chemical entities of biological interest ontology (chebi) (v111), please see http://purl.bioontology.org/ontology/chebi</t>
@@ -4284,151 +4269,151 @@
         <v>391</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="150" customHeight="1">
@@ -4556,151 +4541,151 @@
         <v>392</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -4727,7 +4712,7 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
-      <formula1>ihmcmedicationcode</formula1>
+      <formula1>IHMCmedicationcode</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
       <formula1>hostoccupation</formula1>
@@ -4742,7 +4727,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD294"/>
+  <dimension ref="E1:BD289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4771,13 +4756,13 @@
         <v>393</v>
       </c>
       <c r="AT1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AZ1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BD1" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" spans="5:56">
@@ -4803,13 +4788,13 @@
         <v>394</v>
       </c>
       <c r="AT2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AZ2" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BD2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="3" spans="5:56">
@@ -4829,13 +4814,13 @@
         <v>395</v>
       </c>
       <c r="AT3" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AZ3" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="BD3" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4" spans="5:56">
@@ -4852,13 +4837,13 @@
         <v>396</v>
       </c>
       <c r="AT4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AZ4" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="BD4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="5:56">
@@ -4875,13 +4860,13 @@
         <v>397</v>
       </c>
       <c r="AT5" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AZ5" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="BD5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="5:56">
@@ -4895,13 +4880,13 @@
         <v>398</v>
       </c>
       <c r="AT6" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AZ6" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="BD6" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" spans="5:56">
@@ -4915,13 +4900,13 @@
         <v>399</v>
       </c>
       <c r="AT7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AZ7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="BD7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8" spans="5:56">
@@ -4932,13 +4917,13 @@
         <v>400</v>
       </c>
       <c r="AT8" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AZ8" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BD8" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="5:56">
@@ -4949,13 +4934,13 @@
         <v>401</v>
       </c>
       <c r="AT9" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AZ9" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="BD9" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="5:56">
@@ -4966,13 +4951,13 @@
         <v>402</v>
       </c>
       <c r="AT10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AZ10" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BD10" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="5:56">
@@ -4983,13 +4968,13 @@
         <v>403</v>
       </c>
       <c r="AT11" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AZ11" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="BD11" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="5:56">
@@ -5000,13 +4985,13 @@
         <v>404</v>
       </c>
       <c r="AT12" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AZ12" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="BD12" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="13" spans="5:56">
@@ -5017,13 +5002,13 @@
         <v>405</v>
       </c>
       <c r="AT13" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AZ13" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="BD13" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="5:56">
@@ -5034,13 +5019,13 @@
         <v>406</v>
       </c>
       <c r="AT14" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AZ14" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="BD14" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="5:56">
@@ -5051,13 +5036,13 @@
         <v>407</v>
       </c>
       <c r="AT15" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="AZ15" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="BD15" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="5:56">
@@ -5068,10 +5053,10 @@
         <v>408</v>
       </c>
       <c r="AT16" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="AZ16" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BD16" t="s">
         <v>116</v>
@@ -5085,13 +5070,13 @@
         <v>409</v>
       </c>
       <c r="AT17" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="AZ17" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="BD17" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="18" spans="5:56">
@@ -5102,10 +5087,10 @@
         <v>410</v>
       </c>
       <c r="AT18" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AZ18" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="5:56">
@@ -5116,10 +5101,10 @@
         <v>411</v>
       </c>
       <c r="AT19" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="AZ19" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="5:56">
@@ -5130,10 +5115,10 @@
         <v>412</v>
       </c>
       <c r="AT20" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="AZ20" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="5:56">
@@ -5144,10 +5129,10 @@
         <v>413</v>
       </c>
       <c r="AT21" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="AZ21" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="5:56">
@@ -5158,10 +5143,10 @@
         <v>414</v>
       </c>
       <c r="AT22" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="AZ22" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="5:56">
@@ -5172,7 +5157,7 @@
         <v>415</v>
       </c>
       <c r="AZ23" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="5:56">
@@ -5183,7 +5168,7 @@
         <v>416</v>
       </c>
       <c r="AZ24" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25" spans="5:56">
@@ -5194,7 +5179,7 @@
         <v>417</v>
       </c>
       <c r="AZ25" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="5:56">
@@ -5205,7 +5190,7 @@
         <v>418</v>
       </c>
       <c r="AZ26" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="5:56">
@@ -5216,7 +5201,7 @@
         <v>419</v>
       </c>
       <c r="AZ27" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28" spans="5:56">
@@ -5227,7 +5212,7 @@
         <v>420</v>
       </c>
       <c r="AZ28" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="5:56">
@@ -5238,7 +5223,7 @@
         <v>421</v>
       </c>
       <c r="AZ29" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="30" spans="5:56">
@@ -5249,7 +5234,7 @@
         <v>422</v>
       </c>
       <c r="AZ30" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="31" spans="5:56">
@@ -5257,7 +5242,7 @@
         <v>423</v>
       </c>
       <c r="AZ31" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="32" spans="5:56">
@@ -5265,7 +5250,7 @@
         <v>424</v>
       </c>
       <c r="AZ32" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="42:52">
@@ -5273,7 +5258,7 @@
         <v>425</v>
       </c>
       <c r="AZ33" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="42:52">
@@ -5281,7 +5266,7 @@
         <v>426</v>
       </c>
       <c r="AZ34" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="42:52">
@@ -5289,7 +5274,7 @@
         <v>427</v>
       </c>
       <c r="AZ35" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="42:52">
@@ -5297,7 +5282,7 @@
         <v>428</v>
       </c>
       <c r="AZ36" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="37" spans="42:52">
@@ -5305,7 +5290,7 @@
         <v>429</v>
       </c>
       <c r="AZ37" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="38" spans="42:52">
@@ -5313,7 +5298,7 @@
         <v>430</v>
       </c>
       <c r="AZ38" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="39" spans="42:52">
@@ -5321,7 +5306,7 @@
         <v>431</v>
       </c>
       <c r="AZ39" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="40" spans="42:52">
@@ -5329,7 +5314,7 @@
         <v>432</v>
       </c>
       <c r="AZ40" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="41" spans="42:52">
@@ -5337,7 +5322,7 @@
         <v>433</v>
       </c>
       <c r="AZ41" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="42" spans="42:52">
@@ -5345,7 +5330,7 @@
         <v>434</v>
       </c>
       <c r="AZ42" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="43" spans="42:52">
@@ -5353,7 +5338,7 @@
         <v>435</v>
       </c>
       <c r="AZ43" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="42:52">
@@ -5361,7 +5346,7 @@
         <v>436</v>
       </c>
       <c r="AZ44" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="45" spans="42:52">
@@ -5369,7 +5354,7 @@
         <v>437</v>
       </c>
       <c r="AZ45" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="46" spans="42:52">
@@ -5377,7 +5362,7 @@
         <v>438</v>
       </c>
       <c r="AZ46" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="47" spans="42:52">
@@ -5385,7 +5370,7 @@
         <v>439</v>
       </c>
       <c r="AZ47" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="48" spans="42:52">
@@ -5393,7 +5378,7 @@
         <v>440</v>
       </c>
       <c r="AZ48" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" spans="42:42">
@@ -6599,31 +6584,6 @@
     <row r="289" spans="42:42">
       <c r="AP289" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="290" spans="42:42">
-      <c r="AP290" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="291" spans="42:42">
-      <c r="AP291" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="292" spans="42:42">
-      <c r="AP292" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="293" spans="42:42">
-      <c r="AP293" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="294" spans="42:42">
-      <c r="AP294" t="s">
-        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -18,29 +18,29 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AP$1:$AP$289</definedName>
-    <definedName name="hostoccupation">'cv_sample'!$AZ$1:$AZ$48</definedName>
-    <definedName name="hostsex">'cv_sample'!$BD$1:$BD$17</definedName>
-    <definedName name="IHMCmedicationcode">'cv_sample'!$AT$1:$AT$22</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$289</definedName>
+    <definedName name="hostoccupation">'cv_sample'!$BB$1:$BB$48</definedName>
+    <definedName name="hostsex">'cv_sample'!$BF$1:$BF$17</definedName>
+    <definedName name="IHMCmedicationcode">'cv_sample'!$AV$1:$AV$22</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="medicalhistoryperformed">'cv_sample'!$P$1:$P$2</definedName>
-    <definedName name="observedbioticrelationship">'cv_sample'!$F$1:$F$5</definedName>
-    <definedName name="oxygenationstatusofsample">'cv_sample'!$O$1:$O$2</definedName>
+    <definedName name="medicalhistoryperformed">'cv_sample'!$R$1:$R$2</definedName>
+    <definedName name="observedbioticrelationship">'cv_sample'!$H$1:$H$5</definedName>
+    <definedName name="oxygenationstatusofsample">'cv_sample'!$Q$1:$Q$2</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
-    <definedName name="relationshiptooxygen">'cv_sample'!$H$1:$H$7</definedName>
-    <definedName name="sequencequalitycheck">'cv_sample'!$Y$1:$Y$3</definedName>
+    <definedName name="relationshiptooxygen">'cv_sample'!$J$1:$J$7</definedName>
+    <definedName name="sequencequalitycheck">'cv_sample'!$AA$1:$AA$3</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="trophiclevel">'cv_sample'!$E$1:$E$30</definedName>
+    <definedName name="trophiclevel">'cv_sample'!$G$1:$G$30</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="858">
   <si>
     <t>alias</t>
   </si>
@@ -844,6 +844,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -4135,7 +4147,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL2"/>
+  <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4144,7 +4156,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:92">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4158,19 +4170,19 @@
         <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>322</v>
@@ -4188,13 +4200,13 @@
         <v>330</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>342</v>
@@ -4218,10 +4230,10 @@
         <v>354</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>363</v>
@@ -4269,10 +4281,10 @@
         <v>391</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>682</v>
+        <v>393</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>684</v>
+        <v>395</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>686</v>
@@ -4281,10 +4293,10 @@
         <v>688</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>712</v>
+        <v>690</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>716</v>
@@ -4299,10 +4311,10 @@
         <v>722</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>772</v>
+        <v>724</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="BB1" s="1" t="s">
         <v>776</v>
@@ -4311,10 +4323,10 @@
         <v>778</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>788</v>
@@ -4415,8 +4427,14 @@
       <c r="CL1" s="1" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="2" spans="1:90" ht="150" customHeight="1">
+      <c r="CM1" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -4430,19 +4448,19 @@
         <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>323</v>
@@ -4460,13 +4478,13 @@
         <v>331</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>343</v>
@@ -4490,10 +4508,10 @@
         <v>355</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>364</v>
@@ -4541,10 +4559,10 @@
         <v>392</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>683</v>
+        <v>394</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>685</v>
+        <v>396</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>687</v>
@@ -4553,10 +4571,10 @@
         <v>689</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="AV2" s="2" t="s">
         <v>717</v>
@@ -4571,10 +4589,10 @@
         <v>723</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>773</v>
+        <v>725</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>775</v>
+        <v>727</v>
       </c>
       <c r="BB2" s="2" t="s">
         <v>777</v>
@@ -4583,10 +4601,10 @@
         <v>779</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="BF2" s="2" t="s">
         <v>789</v>
@@ -4687,37 +4705,43 @@
       <c r="CL2" s="2" t="s">
         <v>853</v>
       </c>
+      <c r="CM2" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="CN2" s="2" t="s">
+        <v>857</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
       <formula1>trophiclevel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
       <formula1>observedbioticrelationship</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>relationshiptooxygen</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>oxygenationstatusofsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
       <formula1>medicalhistoryperformed</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA101">
       <formula1>sequencequalitycheck</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AR101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AT3:AT101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AV3:AV101">
       <formula1>IHMCmedicationcode</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AZ3:AZ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BB3:BB101">
       <formula1>hostoccupation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BD3:BD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF3:BF101">
       <formula1>hostsex</formula1>
     </dataValidation>
   </dataValidations>
@@ -4727,1863 +4751,1863 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E1:BD289"/>
+  <dimension ref="G1:BF289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="5:56">
-      <c r="E1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F1" t="s">
+    <row r="1" spans="7:58">
+      <c r="G1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>694</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>728</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="7:58">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>695</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>729</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="3" spans="7:58">
+      <c r="G3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>362</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>696</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>730</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4" spans="7:58">
+      <c r="G4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>697</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>731</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="7:58">
+      <c r="G5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>698</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>732</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="6" spans="7:58">
+      <c r="G6" t="s">
+        <v>279</v>
+      </c>
+      <c r="J6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>699</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>733</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="7" spans="7:58">
+      <c r="G7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>403</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>700</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>734</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="7:58">
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>701</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>735</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="7:58">
+      <c r="G9" t="s">
+        <v>282</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>702</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>736</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="7:58">
+      <c r="G10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>406</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>703</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>737</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="7:58">
+      <c r="G11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>704</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>738</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="7:58">
+      <c r="G12" t="s">
+        <v>285</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>408</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>705</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>739</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="13" spans="7:58">
+      <c r="G13" t="s">
+        <v>286</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>409</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>706</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>740</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="14" spans="7:58">
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>410</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>707</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>741</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="7:58">
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>708</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>742</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="16" spans="7:58">
+      <c r="G16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>412</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>709</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>743</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="7:58">
+      <c r="G17" t="s">
+        <v>290</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>710</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>744</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="7:58">
+      <c r="G18" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>711</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="19" spans="7:58">
+      <c r="G19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>415</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>712</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="20" spans="7:58">
+      <c r="G20" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>713</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="21" spans="7:58">
+      <c r="G21" t="s">
+        <v>294</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>714</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="22" spans="7:58">
+      <c r="G22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>418</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>715</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="23" spans="7:58">
+      <c r="G23" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="7:58">
+      <c r="G24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>420</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="25" spans="7:58">
+      <c r="G25" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>421</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="7:58">
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>422</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="7:58">
+      <c r="G27" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>423</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="7:58">
+      <c r="G28" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>424</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="7:58">
+      <c r="G29" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O1" t="s">
-        <v>332</v>
-      </c>
-      <c r="P1" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>393</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>690</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>724</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="2" spans="5:56">
-      <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="AR29" t="s">
+        <v>425</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="30" spans="7:58">
+      <c r="G30" t="s">
         <v>303</v>
       </c>
-      <c r="H2" t="s">
-        <v>312</v>
-      </c>
-      <c r="O2" t="s">
-        <v>333</v>
-      </c>
-      <c r="P2" t="s">
-        <v>337</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>357</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>394</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>691</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>725</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="3" spans="5:56">
-      <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>726</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="4" spans="5:56">
-      <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>396</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>693</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>727</v>
-      </c>
-      <c r="BD4" t="s">
+      <c r="AR30" t="s">
+        <v>426</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="31" spans="7:58">
+      <c r="AR31" t="s">
+        <v>427</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="7:58">
+      <c r="AR32" t="s">
+        <v>428</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="33" spans="44:54">
+      <c r="AR33" t="s">
+        <v>429</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="34" spans="44:54">
+      <c r="AR34" t="s">
+        <v>430</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="44:54">
+      <c r="AR35" t="s">
+        <v>431</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="36" spans="44:54">
+      <c r="AR36" t="s">
+        <v>432</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="37" spans="44:54">
+      <c r="AR37" t="s">
+        <v>433</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="38" spans="44:54">
+      <c r="AR38" t="s">
+        <v>434</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="39" spans="44:54">
+      <c r="AR39" t="s">
+        <v>435</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="40" spans="44:54">
+      <c r="AR40" t="s">
+        <v>436</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="41" spans="44:54">
+      <c r="AR41" t="s">
+        <v>437</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="42" spans="44:54">
+      <c r="AR42" t="s">
+        <v>438</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="44:54">
+      <c r="AR43" t="s">
+        <v>439</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="44" spans="44:54">
+      <c r="AR44" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="45" spans="44:54">
+      <c r="AR45" t="s">
+        <v>441</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="46" spans="44:54">
+      <c r="AR46" t="s">
+        <v>442</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="47" spans="44:54">
+      <c r="AR47" t="s">
+        <v>443</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="48" spans="44:54">
+      <c r="AR48" t="s">
+        <v>444</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="49" spans="44:44">
+      <c r="AR49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50" spans="44:44">
+      <c r="AR50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="51" spans="44:44">
+      <c r="AR51" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="52" spans="44:44">
+      <c r="AR52" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="44:44">
+      <c r="AR53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="54" spans="44:44">
+      <c r="AR54" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="55" spans="44:44">
+      <c r="AR55" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="56" spans="44:44">
+      <c r="AR56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="44:44">
+      <c r="AR57" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="58" spans="44:44">
+      <c r="AR58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="44:44">
+      <c r="AR59" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="60" spans="44:44">
+      <c r="AR60" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="61" spans="44:44">
+      <c r="AR61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="44:44">
+      <c r="AR62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="63" spans="44:44">
+      <c r="AR63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="64" spans="44:44">
+      <c r="AR64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="65" spans="44:44">
+      <c r="AR65" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="66" spans="44:44">
+      <c r="AR66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="44:44">
+      <c r="AR67" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="68" spans="44:44">
+      <c r="AR68" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="69" spans="44:44">
+      <c r="AR69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="44:44">
+      <c r="AR70" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="44:44">
+      <c r="AR71" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" spans="44:44">
+      <c r="AR72" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="73" spans="44:44">
+      <c r="AR73" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="44:44">
+      <c r="AR74" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="44:44">
+      <c r="AR75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="44:44">
+      <c r="AR76" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="77" spans="44:44">
+      <c r="AR77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78" spans="44:44">
+      <c r="AR78" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="79" spans="44:44">
+      <c r="AR79" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="80" spans="44:44">
+      <c r="AR80" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="44:44">
+      <c r="AR81" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82" spans="44:44">
+      <c r="AR82" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="83" spans="44:44">
+      <c r="AR83" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="84" spans="44:44">
+      <c r="AR84" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="85" spans="44:44">
+      <c r="AR85" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="44:44">
+      <c r="AR86" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="44:44">
+      <c r="AR87" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="44:44">
+      <c r="AR88" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="44:44">
+      <c r="AR89" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="90" spans="44:44">
+      <c r="AR90" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="44:44">
+      <c r="AR91" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="92" spans="44:44">
+      <c r="AR92" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="93" spans="44:44">
+      <c r="AR93" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" spans="44:44">
+      <c r="AR94" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="44:44">
+      <c r="AR95" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="44:44">
+      <c r="AR96" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" spans="44:44">
+      <c r="AR97" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="44:44">
+      <c r="AR98" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="99" spans="44:44">
+      <c r="AR99" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="44:44">
+      <c r="AR100" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="101" spans="44:44">
+      <c r="AR101" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="102" spans="44:44">
+      <c r="AR102" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="103" spans="44:44">
+      <c r="AR103" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="104" spans="44:44">
+      <c r="AR104" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="105" spans="44:44">
+      <c r="AR105" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="106" spans="44:44">
+      <c r="AR106" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="107" spans="44:44">
+      <c r="AR107" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="108" spans="44:44">
+      <c r="AR108" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="109" spans="44:44">
+      <c r="AR109" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="110" spans="44:44">
+      <c r="AR110" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="111" spans="44:44">
+      <c r="AR111" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="112" spans="44:44">
+      <c r="AR112" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="113" spans="44:44">
+      <c r="AR113" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="114" spans="44:44">
+      <c r="AR114" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="115" spans="44:44">
+      <c r="AR115" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="116" spans="44:44">
+      <c r="AR116" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="117" spans="44:44">
+      <c r="AR117" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="118" spans="44:44">
+      <c r="AR118" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="119" spans="44:44">
+      <c r="AR119" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="120" spans="44:44">
+      <c r="AR120" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="121" spans="44:44">
+      <c r="AR121" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="122" spans="44:44">
+      <c r="AR122" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="123" spans="44:44">
+      <c r="AR123" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="124" spans="44:44">
+      <c r="AR124" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="125" spans="44:44">
+      <c r="AR125" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="126" spans="44:44">
+      <c r="AR126" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="127" spans="44:44">
+      <c r="AR127" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="128" spans="44:44">
+      <c r="AR128" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129" spans="44:44">
+      <c r="AR129" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="130" spans="44:44">
+      <c r="AR130" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="131" spans="44:44">
+      <c r="AR131" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="132" spans="44:44">
+      <c r="AR132" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="133" spans="44:44">
+      <c r="AR133" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="44:44">
+      <c r="AR134" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="135" spans="44:44">
+      <c r="AR135" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="136" spans="44:44">
+      <c r="AR136" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="137" spans="44:44">
+      <c r="AR137" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="44:44">
+      <c r="AR138" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="139" spans="44:44">
+      <c r="AR139" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" spans="44:44">
+      <c r="AR140" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="141" spans="44:44">
+      <c r="AR141" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="142" spans="44:44">
+      <c r="AR142" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="143" spans="44:44">
+      <c r="AR143" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="144" spans="44:44">
+      <c r="AR144" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="145" spans="44:44">
+      <c r="AR145" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="146" spans="44:44">
+      <c r="AR146" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="147" spans="44:44">
+      <c r="AR147" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="44:44">
+      <c r="AR148" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="149" spans="44:44">
+      <c r="AR149" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" spans="44:44">
+      <c r="AR150" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="151" spans="44:44">
+      <c r="AR151" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="152" spans="44:44">
+      <c r="AR152" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="153" spans="44:44">
+      <c r="AR153" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="154" spans="44:44">
+      <c r="AR154" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="155" spans="44:44">
+      <c r="AR155" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="156" spans="44:44">
+      <c r="AR156" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="157" spans="44:44">
+      <c r="AR157" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="158" spans="44:44">
+      <c r="AR158" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="159" spans="44:44">
+      <c r="AR159" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="160" spans="44:44">
+      <c r="AR160" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="161" spans="44:44">
+      <c r="AR161" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="162" spans="44:44">
+      <c r="AR162" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="163" spans="44:44">
+      <c r="AR163" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="164" spans="44:44">
+      <c r="AR164" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="165" spans="44:44">
+      <c r="AR165" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="166" spans="44:44">
+      <c r="AR166" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="167" spans="44:44">
+      <c r="AR167" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="168" spans="44:44">
+      <c r="AR168" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="169" spans="44:44">
+      <c r="AR169" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="170" spans="44:44">
+      <c r="AR170" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="171" spans="44:44">
+      <c r="AR171" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="172" spans="44:44">
+      <c r="AR172" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="173" spans="44:44">
+      <c r="AR173" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="174" spans="44:44">
+      <c r="AR174" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="175" spans="44:44">
+      <c r="AR175" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="176" spans="44:44">
+      <c r="AR176" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="177" spans="44:44">
+      <c r="AR177" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="178" spans="44:44">
+      <c r="AR178" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="179" spans="44:44">
+      <c r="AR179" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="180" spans="44:44">
+      <c r="AR180" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="181" spans="44:44">
+      <c r="AR181" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="182" spans="44:44">
+      <c r="AR182" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="183" spans="44:44">
+      <c r="AR183" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="184" spans="44:44">
+      <c r="AR184" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="185" spans="44:44">
+      <c r="AR185" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="186" spans="44:44">
+      <c r="AR186" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="187" spans="44:44">
+      <c r="AR187" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="188" spans="44:44">
+      <c r="AR188" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="189" spans="44:44">
+      <c r="AR189" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="190" spans="44:44">
+      <c r="AR190" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="191" spans="44:44">
+      <c r="AR191" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="192" spans="44:44">
+      <c r="AR192" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="193" spans="44:44">
+      <c r="AR193" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="194" spans="44:44">
+      <c r="AR194" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="195" spans="44:44">
+      <c r="AR195" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="196" spans="44:44">
+      <c r="AR196" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="197" spans="44:44">
+      <c r="AR197" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="198" spans="44:44">
+      <c r="AR198" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="199" spans="44:44">
+      <c r="AR199" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="200" spans="44:44">
+      <c r="AR200" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="201" spans="44:44">
+      <c r="AR201" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="44:44">
+      <c r="AR202" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="203" spans="44:44">
+      <c r="AR203" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="204" spans="44:44">
+      <c r="AR204" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="205" spans="44:44">
+      <c r="AR205" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="206" spans="44:44">
+      <c r="AR206" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="207" spans="44:44">
+      <c r="AR207" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="208" spans="44:44">
+      <c r="AR208" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="209" spans="44:44">
+      <c r="AR209" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="210" spans="44:44">
+      <c r="AR210" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="211" spans="44:44">
+      <c r="AR211" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="212" spans="44:44">
+      <c r="AR212" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="213" spans="44:44">
+      <c r="AR213" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="214" spans="44:44">
+      <c r="AR214" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="215" spans="44:44">
+      <c r="AR215" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="216" spans="44:44">
+      <c r="AR216" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="217" spans="44:44">
+      <c r="AR217" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="218" spans="44:44">
+      <c r="AR218" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="219" spans="44:44">
+      <c r="AR219" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="220" spans="44:44">
+      <c r="AR220" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="221" spans="44:44">
+      <c r="AR221" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="222" spans="44:44">
+      <c r="AR222" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="223" spans="44:44">
+      <c r="AR223" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="224" spans="44:44">
+      <c r="AR224" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="225" spans="44:44">
+      <c r="AR225" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="226" spans="44:44">
+      <c r="AR226" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="227" spans="44:44">
+      <c r="AR227" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="228" spans="44:44">
+      <c r="AR228" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="229" spans="44:44">
+      <c r="AR229" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="230" spans="44:44">
+      <c r="AR230" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="231" spans="44:44">
+      <c r="AR231" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="232" spans="44:44">
+      <c r="AR232" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="233" spans="44:44">
+      <c r="AR233" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="234" spans="44:44">
+      <c r="AR234" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="235" spans="44:44">
+      <c r="AR235" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="236" spans="44:44">
+      <c r="AR236" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="237" spans="44:44">
+      <c r="AR237" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="238" spans="44:44">
+      <c r="AR238" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="239" spans="44:44">
+      <c r="AR239" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="240" spans="44:44">
+      <c r="AR240" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="241" spans="44:44">
+      <c r="AR241" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="242" spans="44:44">
+      <c r="AR242" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="243" spans="44:44">
+      <c r="AR243" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="244" spans="44:44">
+      <c r="AR244" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="245" spans="44:44">
+      <c r="AR245" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="246" spans="44:44">
+      <c r="AR246" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="247" spans="44:44">
+      <c r="AR247" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="248" spans="44:44">
+      <c r="AR248" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="249" spans="44:44">
+      <c r="AR249" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="250" spans="44:44">
+      <c r="AR250" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="251" spans="44:44">
+      <c r="AR251" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="252" spans="44:44">
+      <c r="AR252" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="253" spans="44:44">
+      <c r="AR253" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="254" spans="44:44">
+      <c r="AR254" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="255" spans="44:44">
+      <c r="AR255" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="256" spans="44:44">
+      <c r="AR256" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="257" spans="44:44">
+      <c r="AR257" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="258" spans="44:44">
+      <c r="AR258" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="259" spans="44:44">
+      <c r="AR259" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="260" spans="44:44">
+      <c r="AR260" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="261" spans="44:44">
+      <c r="AR261" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="262" spans="44:44">
+      <c r="AR262" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="263" spans="44:44">
+      <c r="AR263" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="264" spans="44:44">
+      <c r="AR264" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="265" spans="44:44">
+      <c r="AR265" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="266" spans="44:44">
+      <c r="AR266" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="267" spans="44:44">
+      <c r="AR267" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="268" spans="44:44">
+      <c r="AR268" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="269" spans="44:44">
+      <c r="AR269" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="270" spans="44:44">
+      <c r="AR270" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="271" spans="44:44">
+      <c r="AR271" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="272" spans="44:44">
+      <c r="AR272" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="273" spans="44:44">
+      <c r="AR273" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="274" spans="44:44">
+      <c r="AR274" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="5:56">
-      <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="s">
-        <v>306</v>
-      </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>694</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>728</v>
-      </c>
-      <c r="BD5" t="s">
+    <row r="275" spans="44:44">
+      <c r="AR275" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="6" spans="5:56">
-      <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>695</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>729</v>
-      </c>
-      <c r="BD6" t="s">
+    <row r="276" spans="44:44">
+      <c r="AR276" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="7" spans="5:56">
-      <c r="E7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" t="s">
-        <v>317</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>399</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>696</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>730</v>
-      </c>
-      <c r="BD7" t="s">
+    <row r="277" spans="44:44">
+      <c r="AR277" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="8" spans="5:56">
-      <c r="E8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>400</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>697</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>731</v>
-      </c>
-      <c r="BD8" t="s">
+    <row r="278" spans="44:44">
+      <c r="AR278" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="5:56">
-      <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>401</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>698</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>732</v>
-      </c>
-      <c r="BD9" t="s">
+    <row r="279" spans="44:44">
+      <c r="AR279" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="10" spans="5:56">
-      <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>402</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>699</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>733</v>
-      </c>
-      <c r="BD10" t="s">
+    <row r="280" spans="44:44">
+      <c r="AR280" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="5:56">
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>403</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>700</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>734</v>
-      </c>
-      <c r="BD11" t="s">
+    <row r="281" spans="44:44">
+      <c r="AR281" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="12" spans="5:56">
-      <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>404</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>701</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>735</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="13" spans="5:56">
-      <c r="E13" t="s">
-        <v>282</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>405</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>702</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>736</v>
-      </c>
-      <c r="BD13" t="s">
+    <row r="282" spans="44:44">
+      <c r="AR282" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="14" spans="5:56">
-      <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>406</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>703</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>737</v>
-      </c>
-      <c r="BD14" t="s">
+    <row r="283" spans="44:44">
+      <c r="AR283" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="15" spans="5:56">
-      <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>407</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>704</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>738</v>
-      </c>
-      <c r="BD15" t="s">
+    <row r="284" spans="44:44">
+      <c r="AR284" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="16" spans="5:56">
-      <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>408</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>705</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>739</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="5:56">
-      <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>409</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>706</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>740</v>
-      </c>
-      <c r="BD17" t="s">
+    <row r="285" spans="44:44">
+      <c r="AR285" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="5:56">
-      <c r="E18" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>410</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>707</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="19" spans="5:56">
-      <c r="E19" t="s">
-        <v>288</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>411</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>708</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="20" spans="5:56">
-      <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>412</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>709</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="21" spans="5:56">
-      <c r="E21" t="s">
-        <v>290</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>413</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>710</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="22" spans="5:56">
-      <c r="E22" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>414</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>711</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="23" spans="5:56">
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>415</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="24" spans="5:56">
-      <c r="E24" t="s">
-        <v>293</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>416</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="25" spans="5:56">
-      <c r="E25" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>417</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="26" spans="5:56">
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>418</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="27" spans="5:56">
-      <c r="E27" t="s">
-        <v>296</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>419</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="28" spans="5:56">
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>420</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="5:56">
-      <c r="E29" t="s">
-        <v>298</v>
-      </c>
-      <c r="AP29" t="s">
-        <v>421</v>
-      </c>
-      <c r="AZ29" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="30" spans="5:56">
-      <c r="E30" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>422</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="31" spans="5:56">
-      <c r="AP31" t="s">
-        <v>423</v>
-      </c>
-      <c r="AZ31" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="32" spans="5:56">
-      <c r="AP32" t="s">
-        <v>424</v>
-      </c>
-      <c r="AZ32" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="33" spans="42:52">
-      <c r="AP33" t="s">
-        <v>425</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="34" spans="42:52">
-      <c r="AP34" t="s">
-        <v>426</v>
-      </c>
-      <c r="AZ34" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="35" spans="42:52">
-      <c r="AP35" t="s">
-        <v>427</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="36" spans="42:52">
-      <c r="AP36" t="s">
-        <v>428</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="37" spans="42:52">
-      <c r="AP37" t="s">
-        <v>429</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="38" spans="42:52">
-      <c r="AP38" t="s">
-        <v>430</v>
-      </c>
-      <c r="AZ38" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="39" spans="42:52">
-      <c r="AP39" t="s">
-        <v>431</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="40" spans="42:52">
-      <c r="AP40" t="s">
-        <v>432</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="41" spans="42:52">
-      <c r="AP41" t="s">
-        <v>433</v>
-      </c>
-      <c r="AZ41" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="42" spans="42:52">
-      <c r="AP42" t="s">
-        <v>434</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="43" spans="42:52">
-      <c r="AP43" t="s">
-        <v>435</v>
-      </c>
-      <c r="AZ43" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="44" spans="42:52">
-      <c r="AP44" t="s">
-        <v>436</v>
-      </c>
-      <c r="AZ44" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="45" spans="42:52">
-      <c r="AP45" t="s">
-        <v>437</v>
-      </c>
-      <c r="AZ45" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="46" spans="42:52">
-      <c r="AP46" t="s">
-        <v>438</v>
-      </c>
-      <c r="AZ46" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="47" spans="42:52">
-      <c r="AP47" t="s">
-        <v>439</v>
-      </c>
-      <c r="AZ47" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="48" spans="42:52">
-      <c r="AP48" t="s">
-        <v>440</v>
-      </c>
-      <c r="AZ48" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="49" spans="42:42">
-      <c r="AP49" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="42:42">
-      <c r="AP50" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="51" spans="42:42">
-      <c r="AP51" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="52" spans="42:42">
-      <c r="AP52" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="53" spans="42:42">
-      <c r="AP53" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="54" spans="42:42">
-      <c r="AP54" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="42:42">
-      <c r="AP55" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="42:42">
-      <c r="AP56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="42:42">
-      <c r="AP57" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="58" spans="42:42">
-      <c r="AP58" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="59" spans="42:42">
-      <c r="AP59" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="60" spans="42:42">
-      <c r="AP60" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="61" spans="42:42">
-      <c r="AP61" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="62" spans="42:42">
-      <c r="AP62" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="63" spans="42:42">
-      <c r="AP63" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="64" spans="42:42">
-      <c r="AP64" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="65" spans="42:42">
-      <c r="AP65" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="66" spans="42:42">
-      <c r="AP66" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="67" spans="42:42">
-      <c r="AP67" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="68" spans="42:42">
-      <c r="AP68" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="69" spans="42:42">
-      <c r="AP69" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="70" spans="42:42">
-      <c r="AP70" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="71" spans="42:42">
-      <c r="AP71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="42:42">
-      <c r="AP72" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="73" spans="42:42">
-      <c r="AP73" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="42:42">
-      <c r="AP74" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="75" spans="42:42">
-      <c r="AP75" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="76" spans="42:42">
-      <c r="AP76" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="77" spans="42:42">
-      <c r="AP77" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="42:42">
-      <c r="AP78" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="79" spans="42:42">
-      <c r="AP79" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="80" spans="42:42">
-      <c r="AP80" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="81" spans="42:42">
-      <c r="AP81" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="82" spans="42:42">
-      <c r="AP82" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="83" spans="42:42">
-      <c r="AP83" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="84" spans="42:42">
-      <c r="AP84" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="85" spans="42:42">
-      <c r="AP85" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="86" spans="42:42">
-      <c r="AP86" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="87" spans="42:42">
-      <c r="AP87" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="88" spans="42:42">
-      <c r="AP88" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="89" spans="42:42">
-      <c r="AP89" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="90" spans="42:42">
-      <c r="AP90" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="91" spans="42:42">
-      <c r="AP91" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="42:42">
-      <c r="AP92" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="93" spans="42:42">
-      <c r="AP93" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="94" spans="42:42">
-      <c r="AP94" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="95" spans="42:42">
-      <c r="AP95" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="96" spans="42:42">
-      <c r="AP96" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="97" spans="42:42">
-      <c r="AP97" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="98" spans="42:42">
-      <c r="AP98" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="99" spans="42:42">
-      <c r="AP99" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="100" spans="42:42">
-      <c r="AP100" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="101" spans="42:42">
-      <c r="AP101" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="102" spans="42:42">
-      <c r="AP102" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="103" spans="42:42">
-      <c r="AP103" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="104" spans="42:42">
-      <c r="AP104" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="105" spans="42:42">
-      <c r="AP105" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="106" spans="42:42">
-      <c r="AP106" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="107" spans="42:42">
-      <c r="AP107" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="108" spans="42:42">
-      <c r="AP108" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="109" spans="42:42">
-      <c r="AP109" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="110" spans="42:42">
-      <c r="AP110" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="111" spans="42:42">
-      <c r="AP111" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="112" spans="42:42">
-      <c r="AP112" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="42:42">
-      <c r="AP113" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="114" spans="42:42">
-      <c r="AP114" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="115" spans="42:42">
-      <c r="AP115" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="42:42">
-      <c r="AP116" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="117" spans="42:42">
-      <c r="AP117" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="118" spans="42:42">
-      <c r="AP118" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="119" spans="42:42">
-      <c r="AP119" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="120" spans="42:42">
-      <c r="AP120" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="121" spans="42:42">
-      <c r="AP121" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="122" spans="42:42">
-      <c r="AP122" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="123" spans="42:42">
-      <c r="AP123" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="124" spans="42:42">
-      <c r="AP124" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="125" spans="42:42">
-      <c r="AP125" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="126" spans="42:42">
-      <c r="AP126" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="127" spans="42:42">
-      <c r="AP127" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="128" spans="42:42">
-      <c r="AP128" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="129" spans="42:42">
-      <c r="AP129" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="130" spans="42:42">
-      <c r="AP130" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="131" spans="42:42">
-      <c r="AP131" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="132" spans="42:42">
-      <c r="AP132" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="133" spans="42:42">
-      <c r="AP133" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="134" spans="42:42">
-      <c r="AP134" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="135" spans="42:42">
-      <c r="AP135" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="136" spans="42:42">
-      <c r="AP136" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="137" spans="42:42">
-      <c r="AP137" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="138" spans="42:42">
-      <c r="AP138" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="139" spans="42:42">
-      <c r="AP139" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="140" spans="42:42">
-      <c r="AP140" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="141" spans="42:42">
-      <c r="AP141" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="142" spans="42:42">
-      <c r="AP142" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="143" spans="42:42">
-      <c r="AP143" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="144" spans="42:42">
-      <c r="AP144" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="145" spans="42:42">
-      <c r="AP145" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="146" spans="42:42">
-      <c r="AP146" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="147" spans="42:42">
-      <c r="AP147" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="148" spans="42:42">
-      <c r="AP148" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="149" spans="42:42">
-      <c r="AP149" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="150" spans="42:42">
-      <c r="AP150" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="151" spans="42:42">
-      <c r="AP151" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="152" spans="42:42">
-      <c r="AP152" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="153" spans="42:42">
-      <c r="AP153" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="154" spans="42:42">
-      <c r="AP154" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="155" spans="42:42">
-      <c r="AP155" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="156" spans="42:42">
-      <c r="AP156" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="157" spans="42:42">
-      <c r="AP157" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="158" spans="42:42">
-      <c r="AP158" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="159" spans="42:42">
-      <c r="AP159" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="160" spans="42:42">
-      <c r="AP160" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="161" spans="42:42">
-      <c r="AP161" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="162" spans="42:42">
-      <c r="AP162" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="163" spans="42:42">
-      <c r="AP163" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="164" spans="42:42">
-      <c r="AP164" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="165" spans="42:42">
-      <c r="AP165" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="166" spans="42:42">
-      <c r="AP166" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="167" spans="42:42">
-      <c r="AP167" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="168" spans="42:42">
-      <c r="AP168" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="169" spans="42:42">
-      <c r="AP169" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="170" spans="42:42">
-      <c r="AP170" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="171" spans="42:42">
-      <c r="AP171" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="172" spans="42:42">
-      <c r="AP172" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="173" spans="42:42">
-      <c r="AP173" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="174" spans="42:42">
-      <c r="AP174" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="175" spans="42:42">
-      <c r="AP175" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="176" spans="42:42">
-      <c r="AP176" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="177" spans="42:42">
-      <c r="AP177" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="178" spans="42:42">
-      <c r="AP178" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="179" spans="42:42">
-      <c r="AP179" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="180" spans="42:42">
-      <c r="AP180" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="181" spans="42:42">
-      <c r="AP181" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="182" spans="42:42">
-      <c r="AP182" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="183" spans="42:42">
-      <c r="AP183" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="184" spans="42:42">
-      <c r="AP184" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="185" spans="42:42">
-      <c r="AP185" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="186" spans="42:42">
-      <c r="AP186" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="187" spans="42:42">
-      <c r="AP187" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="188" spans="42:42">
-      <c r="AP188" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="189" spans="42:42">
-      <c r="AP189" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="190" spans="42:42">
-      <c r="AP190" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="191" spans="42:42">
-      <c r="AP191" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="192" spans="42:42">
-      <c r="AP192" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="193" spans="42:42">
-      <c r="AP193" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="194" spans="42:42">
-      <c r="AP194" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="195" spans="42:42">
-      <c r="AP195" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="196" spans="42:42">
-      <c r="AP196" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="197" spans="42:42">
-      <c r="AP197" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="198" spans="42:42">
-      <c r="AP198" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="199" spans="42:42">
-      <c r="AP199" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="200" spans="42:42">
-      <c r="AP200" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="201" spans="42:42">
-      <c r="AP201" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="202" spans="42:42">
-      <c r="AP202" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="203" spans="42:42">
-      <c r="AP203" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="204" spans="42:42">
-      <c r="AP204" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="205" spans="42:42">
-      <c r="AP205" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="206" spans="42:42">
-      <c r="AP206" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="207" spans="42:42">
-      <c r="AP207" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="208" spans="42:42">
-      <c r="AP208" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="209" spans="42:42">
-      <c r="AP209" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="210" spans="42:42">
-      <c r="AP210" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="211" spans="42:42">
-      <c r="AP211" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="212" spans="42:42">
-      <c r="AP212" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="213" spans="42:42">
-      <c r="AP213" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="214" spans="42:42">
-      <c r="AP214" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="215" spans="42:42">
-      <c r="AP215" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="216" spans="42:42">
-      <c r="AP216" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="217" spans="42:42">
-      <c r="AP217" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="218" spans="42:42">
-      <c r="AP218" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="219" spans="42:42">
-      <c r="AP219" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="220" spans="42:42">
-      <c r="AP220" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="221" spans="42:42">
-      <c r="AP221" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="222" spans="42:42">
-      <c r="AP222" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="223" spans="42:42">
-      <c r="AP223" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="224" spans="42:42">
-      <c r="AP224" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="225" spans="42:42">
-      <c r="AP225" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="226" spans="42:42">
-      <c r="AP226" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="227" spans="42:42">
-      <c r="AP227" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="228" spans="42:42">
-      <c r="AP228" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="229" spans="42:42">
-      <c r="AP229" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="230" spans="42:42">
-      <c r="AP230" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="231" spans="42:42">
-      <c r="AP231" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="232" spans="42:42">
-      <c r="AP232" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="233" spans="42:42">
-      <c r="AP233" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="234" spans="42:42">
-      <c r="AP234" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="235" spans="42:42">
-      <c r="AP235" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="236" spans="42:42">
-      <c r="AP236" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="237" spans="42:42">
-      <c r="AP237" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="238" spans="42:42">
-      <c r="AP238" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="239" spans="42:42">
-      <c r="AP239" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="240" spans="42:42">
-      <c r="AP240" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="241" spans="42:42">
-      <c r="AP241" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="242" spans="42:42">
-      <c r="AP242" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="243" spans="42:42">
-      <c r="AP243" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="244" spans="42:42">
-      <c r="AP244" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="245" spans="42:42">
-      <c r="AP245" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="246" spans="42:42">
-      <c r="AP246" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="247" spans="42:42">
-      <c r="AP247" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="248" spans="42:42">
-      <c r="AP248" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="249" spans="42:42">
-      <c r="AP249" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="250" spans="42:42">
-      <c r="AP250" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="251" spans="42:42">
-      <c r="AP251" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="252" spans="42:42">
-      <c r="AP252" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="253" spans="42:42">
-      <c r="AP253" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="254" spans="42:42">
-      <c r="AP254" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="255" spans="42:42">
-      <c r="AP255" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="256" spans="42:42">
-      <c r="AP256" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="257" spans="42:42">
-      <c r="AP257" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="258" spans="42:42">
-      <c r="AP258" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="259" spans="42:42">
-      <c r="AP259" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="260" spans="42:42">
-      <c r="AP260" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="261" spans="42:42">
-      <c r="AP261" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="262" spans="42:42">
-      <c r="AP262" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="263" spans="42:42">
-      <c r="AP263" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="264" spans="42:42">
-      <c r="AP264" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="265" spans="42:42">
-      <c r="AP265" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="266" spans="42:42">
-      <c r="AP266" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="267" spans="42:42">
-      <c r="AP267" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="268" spans="42:42">
-      <c r="AP268" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="269" spans="42:42">
-      <c r="AP269" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="270" spans="42:42">
-      <c r="AP270" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="271" spans="42:42">
-      <c r="AP271" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="272" spans="42:42">
-      <c r="AP272" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="273" spans="42:42">
-      <c r="AP273" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="274" spans="42:42">
-      <c r="AP274" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="275" spans="42:42">
-      <c r="AP275" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="276" spans="42:42">
-      <c r="AP276" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="277" spans="42:42">
-      <c r="AP277" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="278" spans="42:42">
-      <c r="AP278" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="279" spans="42:42">
-      <c r="AP279" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="280" spans="42:42">
-      <c r="AP280" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="281" spans="42:42">
-      <c r="AP281" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="282" spans="42:42">
-      <c r="AP282" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="283" spans="42:42">
-      <c r="AP283" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="284" spans="42:42">
-      <c r="AP284" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="285" spans="42:42">
-      <c r="AP285" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="286" spans="42:42">
-      <c r="AP286" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="287" spans="42:42">
-      <c r="AP287" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="288" spans="42:42">
-      <c r="AP288" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="289" spans="42:42">
-      <c r="AP289" t="s">
-        <v>681</v>
+    <row r="286" spans="44:44">
+      <c r="AR286" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="287" spans="44:44">
+      <c r="AR287" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="288" spans="44:44">
+      <c r="AR288" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="289" spans="44:44">
+      <c r="AR289" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$294</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BB$1:$BB$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BF$1:$BF$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AV$1:$AV$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="863">
   <si>
     <t>alias</t>
   </si>
@@ -1218,7 +1218,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1446,9 +1446,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1467,6 +1464,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1668,6 +1668,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1677,9 +1680,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1788,6 +1788,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1863,6 +1866,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1884,6 +1890,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1929,6 +1938,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1941,6 +1953,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1950,9 +1965,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1977,6 +1989,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2037,12 +2052,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2199,7 +2214,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>host body site</t>
@@ -2211,7 +2226,7 @@
     <t>host height</t>
   </si>
   <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
+    <t>(Optional) The height of subject (Units: mm, cm, m)</t>
   </si>
   <si>
     <t>host body-mass index</t>
@@ -2379,7 +2394,7 @@
     <t>host total mass</t>
   </si>
   <si>
-    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: kg)</t>
+    <t>(Optional) Total mass of the host at collection, the unit depends on host (Units: g, kg)</t>
   </si>
   <si>
     <t>host phenotype</t>
@@ -2439,7 +2454,7 @@
     <t>time since last toothbrushing</t>
   </si>
   <si>
-    <t>(Optional) Specification of the time since last toothbrushing (Units: minutes)</t>
+    <t>(Optional) Specification of the time since last toothbrushing (Units: hours, minutes)</t>
   </si>
   <si>
     <t>host diet</t>
@@ -2547,7 +2562,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: g, ng, mg, mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -4287,151 +4302,151 @@
         <v>395</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:92" ht="150" customHeight="1">
@@ -4565,151 +4580,151 @@
         <v>396</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4766,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BF289"/>
+  <dimension ref="G1:BF294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4780,13 +4795,13 @@
         <v>397</v>
       </c>
       <c r="AV1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BB1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BF1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="7:58">
@@ -4812,13 +4827,13 @@
         <v>398</v>
       </c>
       <c r="AV2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BB2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BF2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="7:58">
@@ -4838,13 +4853,13 @@
         <v>399</v>
       </c>
       <c r="AV3" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BB3" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BF3" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="7:58">
@@ -4861,13 +4876,13 @@
         <v>400</v>
       </c>
       <c r="AV4" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BB4" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BF4" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="7:58">
@@ -4884,13 +4899,13 @@
         <v>401</v>
       </c>
       <c r="AV5" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BB5" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BF5" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="7:58">
@@ -4904,13 +4919,13 @@
         <v>402</v>
       </c>
       <c r="AV6" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BB6" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BF6" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="7:58">
@@ -4924,13 +4939,13 @@
         <v>403</v>
       </c>
       <c r="AV7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BB7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BF7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="7:58">
@@ -4941,13 +4956,13 @@
         <v>404</v>
       </c>
       <c r="AV8" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BB8" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BF8" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="7:58">
@@ -4958,13 +4973,13 @@
         <v>405</v>
       </c>
       <c r="AV9" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB9" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BF9" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="7:58">
@@ -4975,13 +4990,13 @@
         <v>406</v>
       </c>
       <c r="AV10" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB10" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BF10" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="7:58">
@@ -4992,13 +5007,13 @@
         <v>407</v>
       </c>
       <c r="AV11" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB11" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BF11" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="7:58">
@@ -5009,13 +5024,13 @@
         <v>408</v>
       </c>
       <c r="AV12" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BB12" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BF12" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="7:58">
@@ -5026,13 +5041,13 @@
         <v>409</v>
       </c>
       <c r="AV13" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BB13" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF13" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="7:58">
@@ -5043,13 +5058,13 @@
         <v>410</v>
       </c>
       <c r="AV14" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BB14" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF14" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="7:58">
@@ -5060,13 +5075,13 @@
         <v>411</v>
       </c>
       <c r="AV15" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BB15" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BF15" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="7:58">
@@ -5077,10 +5092,10 @@
         <v>412</v>
       </c>
       <c r="AV16" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BB16" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BF16" t="s">
         <v>116</v>
@@ -5094,13 +5109,13 @@
         <v>413</v>
       </c>
       <c r="AV17" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BB17" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BF17" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="7:58">
@@ -5111,10 +5126,10 @@
         <v>414</v>
       </c>
       <c r="AV18" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BB18" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="7:58">
@@ -5125,10 +5140,10 @@
         <v>415</v>
       </c>
       <c r="AV19" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BB19" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="7:58">
@@ -5139,10 +5154,10 @@
         <v>416</v>
       </c>
       <c r="AV20" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BB20" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="7:58">
@@ -5153,10 +5168,10 @@
         <v>417</v>
       </c>
       <c r="AV21" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BB21" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="7:58">
@@ -5167,10 +5182,10 @@
         <v>418</v>
       </c>
       <c r="AV22" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BB22" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="7:58">
@@ -5181,7 +5196,7 @@
         <v>419</v>
       </c>
       <c r="BB23" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="7:58">
@@ -5192,7 +5207,7 @@
         <v>420</v>
       </c>
       <c r="BB24" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="7:58">
@@ -5203,7 +5218,7 @@
         <v>421</v>
       </c>
       <c r="BB25" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="7:58">
@@ -5214,7 +5229,7 @@
         <v>422</v>
       </c>
       <c r="BB26" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="7:58">
@@ -5225,7 +5240,7 @@
         <v>423</v>
       </c>
       <c r="BB27" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="7:58">
@@ -5236,7 +5251,7 @@
         <v>424</v>
       </c>
       <c r="BB28" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="7:58">
@@ -5247,7 +5262,7 @@
         <v>425</v>
       </c>
       <c r="BB29" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="7:58">
@@ -5258,7 +5273,7 @@
         <v>426</v>
       </c>
       <c r="BB30" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="7:58">
@@ -5266,7 +5281,7 @@
         <v>427</v>
       </c>
       <c r="BB31" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="7:58">
@@ -5274,7 +5289,7 @@
         <v>428</v>
       </c>
       <c r="BB32" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="44:54">
@@ -5282,7 +5297,7 @@
         <v>429</v>
       </c>
       <c r="BB33" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="44:54">
@@ -5290,7 +5305,7 @@
         <v>430</v>
       </c>
       <c r="BB34" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="44:54">
@@ -5298,7 +5313,7 @@
         <v>431</v>
       </c>
       <c r="BB35" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="44:54">
@@ -5306,7 +5321,7 @@
         <v>432</v>
       </c>
       <c r="BB36" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="44:54">
@@ -5314,7 +5329,7 @@
         <v>433</v>
       </c>
       <c r="BB37" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="44:54">
@@ -5322,7 +5337,7 @@
         <v>434</v>
       </c>
       <c r="BB38" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="44:54">
@@ -5330,7 +5345,7 @@
         <v>435</v>
       </c>
       <c r="BB39" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="40" spans="44:54">
@@ -5338,7 +5353,7 @@
         <v>436</v>
       </c>
       <c r="BB40" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="44:54">
@@ -5346,7 +5361,7 @@
         <v>437</v>
       </c>
       <c r="BB41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" spans="44:54">
@@ -5354,7 +5369,7 @@
         <v>438</v>
       </c>
       <c r="BB42" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="44:54">
@@ -5362,7 +5377,7 @@
         <v>439</v>
       </c>
       <c r="BB43" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="44" spans="44:54">
@@ -5370,7 +5385,7 @@
         <v>440</v>
       </c>
       <c r="BB44" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="45" spans="44:54">
@@ -5378,7 +5393,7 @@
         <v>441</v>
       </c>
       <c r="BB45" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="44:54">
@@ -5386,7 +5401,7 @@
         <v>442</v>
       </c>
       <c r="BB46" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="47" spans="44:54">
@@ -5394,7 +5409,7 @@
         <v>443</v>
       </c>
       <c r="BB47" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="48" spans="44:54">
@@ -5402,7 +5417,7 @@
         <v>444</v>
       </c>
       <c r="BB48" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="44:44">
@@ -6608,6 +6623,31 @@
     <row r="289" spans="44:44">
       <c r="AR289" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="290" spans="44:44">
+      <c r="AR290" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="291" spans="44:44">
+      <c r="AR291" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="292" spans="44:44">
+      <c r="AR292" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="293" spans="44:44">
+      <c r="AR293" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="294" spans="44:44">
+      <c r="AR294" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000016/metadata_template_ERC000016.xlsx
+++ b/templates/ERC000016/metadata_template_ERC000016.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AR$1:$AR$294</definedName>
     <definedName name="hostoccupation">'cv_sample'!$BB$1:$BB$48</definedName>
     <definedName name="hostsex">'cv_sample'!$BF$1:$BF$17</definedName>
     <definedName name="IHMCmedicationcode">'cv_sample'!$AV$1:$AV$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="863">
   <si>
     <t>alias</t>
   </si>
@@ -1218,7 +1218,7 @@
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>organism count</t>
@@ -1446,9 +1446,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1467,6 +1464,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1668,6 +1668,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1677,9 +1680,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1788,6 +1788,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1863,6 +1866,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1884,6 +1890,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1929,6 +1938,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1941,6 +1953,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1950,9 +1965,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1977,6 +1989,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -2037,12 +2052,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2211,7 +2226,7 @@
     <t>host height</t>
   </si>
   <si>
-    <t>(Optional) The height of subject (Units: mm)</t>
+    <t>(Optional) The height of subject (Units: m)</t>
   </si>
   <si>
     <t>host body-mass index</t>
@@ -2547,7 +2562,7 @@
     <t>sample volume or weight for DNA extraction</t>
   </si>
   <si>
-    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: ng)</t>
+    <t>(Optional) Volume (ml) or mass (g) of total collected sample processed for dna extraction. note: total sample collected should be entered under the term 'sample size'. (Units: mL)</t>
   </si>
   <si>
     <t>nucleic acid extraction</t>
@@ -4287,151 +4302,151 @@
         <v>395</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:92" ht="150" customHeight="1">
@@ -4565,151 +4580,151 @@
         <v>396</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="BM2" s="2" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="BN2" s="2" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="BO2" s="2" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="BP2" s="2" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="BQ2" s="2" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="BR2" s="2" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="BS2" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="BT2" s="2" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="BU2" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="BV2" s="2" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="BW2" s="2" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="BX2" s="2" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="BY2" s="2" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="BZ2" s="2" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="CA2" s="2" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="CB2" s="2" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="CC2" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="CD2" s="2" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="CE2" s="2" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="CF2" s="2" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="CG2" s="2" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="CH2" s="2" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="CI2" s="2" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="CJ2" s="2" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="CK2" s="2" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="CL2" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="CM2" s="2" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="CN2" s="2" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4766,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:BF289"/>
+  <dimension ref="G1:BF294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4780,13 +4795,13 @@
         <v>397</v>
       </c>
       <c r="AV1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="BB1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="BF1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="7:58">
@@ -4812,13 +4827,13 @@
         <v>398</v>
       </c>
       <c r="AV2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="BB2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="BF2" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="3" spans="7:58">
@@ -4838,13 +4853,13 @@
         <v>399</v>
       </c>
       <c r="AV3" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="BB3" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="BF3" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="4" spans="7:58">
@@ -4861,13 +4876,13 @@
         <v>400</v>
       </c>
       <c r="AV4" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="BB4" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="BF4" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="7:58">
@@ -4884,13 +4899,13 @@
         <v>401</v>
       </c>
       <c r="AV5" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="BB5" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="BF5" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="7:58">
@@ -4904,13 +4919,13 @@
         <v>402</v>
       </c>
       <c r="AV6" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="BB6" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="BF6" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="7:58">
@@ -4924,13 +4939,13 @@
         <v>403</v>
       </c>
       <c r="AV7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="BB7" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="BF7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="7:58">
@@ -4941,13 +4956,13 @@
         <v>404</v>
       </c>
       <c r="AV8" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="BB8" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="BF8" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="7:58">
@@ -4958,13 +4973,13 @@
         <v>405</v>
       </c>
       <c r="AV9" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="BB9" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="BF9" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="7:58">
@@ -4975,13 +4990,13 @@
         <v>406</v>
       </c>
       <c r="AV10" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="BB10" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="BF10" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="11" spans="7:58">
@@ -4992,13 +5007,13 @@
         <v>407</v>
       </c>
       <c r="AV11" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="BB11" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="BF11" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="7:58">
@@ -5009,13 +5024,13 @@
         <v>408</v>
       </c>
       <c r="AV12" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="BB12" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="BF12" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="13" spans="7:58">
@@ -5026,13 +5041,13 @@
         <v>409</v>
       </c>
       <c r="AV13" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="BB13" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="BF13" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="7:58">
@@ -5043,13 +5058,13 @@
         <v>410</v>
       </c>
       <c r="AV14" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="BB14" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="BF14" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="7:58">
@@ -5060,13 +5075,13 @@
         <v>411</v>
       </c>
       <c r="AV15" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="BB15" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="BF15" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="7:58">
@@ -5077,10 +5092,10 @@
         <v>412</v>
       </c>
       <c r="AV16" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="BB16" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="BF16" t="s">
         <v>116</v>
@@ -5094,13 +5109,13 @@
         <v>413</v>
       </c>
       <c r="AV17" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="BB17" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="BF17" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="7:58">
@@ -5111,10 +5126,10 @@
         <v>414</v>
       </c>
       <c r="AV18" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="BB18" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="7:58">
@@ -5125,10 +5140,10 @@
         <v>415</v>
       </c>
       <c r="AV19" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="BB19" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="7:58">
@@ -5139,10 +5154,10 @@
         <v>416</v>
       </c>
       <c r="AV20" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="BB20" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="7:58">
@@ -5153,10 +5168,10 @@
         <v>417</v>
       </c>
       <c r="AV21" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="BB21" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="7:58">
@@ -5167,10 +5182,10 @@
         <v>418</v>
       </c>
       <c r="AV22" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="BB22" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="7:58">
@@ -5181,7 +5196,7 @@
         <v>419</v>
       </c>
       <c r="BB23" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="7:58">
@@ -5192,7 +5207,7 @@
         <v>420</v>
       </c>
       <c r="BB24" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25" spans="7:58">
@@ -5203,7 +5218,7 @@
         <v>421</v>
       </c>
       <c r="BB25" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="26" spans="7:58">
@@ -5214,7 +5229,7 @@
         <v>422</v>
       </c>
       <c r="BB26" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="27" spans="7:58">
@@ -5225,7 +5240,7 @@
         <v>423</v>
       </c>
       <c r="BB27" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28" spans="7:58">
@@ -5236,7 +5251,7 @@
         <v>424</v>
       </c>
       <c r="BB28" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="7:58">
@@ -5247,7 +5262,7 @@
         <v>425</v>
       </c>
       <c r="BB29" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="7:58">
@@ -5258,7 +5273,7 @@
         <v>426</v>
       </c>
       <c r="BB30" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="31" spans="7:58">
@@ -5266,7 +5281,7 @@
         <v>427</v>
       </c>
       <c r="BB31" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="7:58">
@@ -5274,7 +5289,7 @@
         <v>428</v>
       </c>
       <c r="BB32" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33" spans="44:54">
@@ -5282,7 +5297,7 @@
         <v>429</v>
       </c>
       <c r="BB33" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="34" spans="44:54">
@@ -5290,7 +5305,7 @@
         <v>430</v>
       </c>
       <c r="BB34" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="44:54">
@@ -5298,7 +5313,7 @@
         <v>431</v>
       </c>
       <c r="BB35" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="44:54">
@@ -5306,7 +5321,7 @@
         <v>432</v>
       </c>
       <c r="BB36" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="44:54">
@@ -5314,7 +5329,7 @@
         <v>433</v>
       </c>
       <c r="BB37" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="44:54">
@@ -5322,7 +5337,7 @@
         <v>434</v>
       </c>
       <c r="BB38" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="44:54">
@@ -5330,7 +5345,7 @@
         <v>435</v>
       </c>
       <c r="BB39" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="40" spans="44:54">
@@ -5338,7 +5353,7 @@
         <v>436</v>
       </c>
       <c r="BB40" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="44:54">
@@ -5346,7 +5361,7 @@
         <v>437</v>
       </c>
       <c r="BB41" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
     </row>
     <row r="42" spans="44:54">
@@ -5354,7 +5369,7 @@
         <v>438</v>
       </c>
       <c r="BB42" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="44:54">
@@ -5362,7 +5377,7 @@
         <v>439</v>
       </c>
       <c r="BB43" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
     </row>
     <row r="44" spans="44:54">
@@ -5370,7 +5385,7 @@
         <v>440</v>
       </c>
       <c r="BB44" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="45" spans="44:54">
@@ -5378,7 +5393,7 @@
         <v>441</v>
       </c>
       <c r="BB45" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="46" spans="44:54">
@@ -5386,7 +5401,7 @@
         <v>442</v>
       </c>
       <c r="BB46" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
     </row>
     <row r="47" spans="44:54">
@@ -5394,7 +5409,7 @@
         <v>443</v>
       </c>
       <c r="BB47" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="48" spans="44:54">
@@ -5402,7 +5417,7 @@
         <v>444</v>
       </c>
       <c r="BB48" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="44:44">
@@ -6608,6 +6623,31 @@
     <row r="289" spans="44:44">
       <c r="AR289" t="s">
         <v>685</v>
+      </c>
+    </row>
+    <row r="290" spans="44:44">
+      <c r="AR290" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="291" spans="44:44">
+      <c r="AR291" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="292" spans="44:44">
+      <c r="AR292" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="293" spans="44:44">
+      <c r="AR293" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="294" spans="44:44">
+      <c r="AR294" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
